--- a/analysis/data/out.xlsx
+++ b/analysis/data/out.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F943"/>
+  <dimension ref="A1:G943"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>prev_elapsed</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>position</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,6 +485,9 @@
       </c>
       <c r="F2" t="n">
         <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>0</v>
       </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -525,6 +536,9 @@
       <c r="F4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,6 +561,9 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -569,6 +586,9 @@
       <c r="F6" t="n">
         <v>0</v>
       </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -591,6 +611,9 @@
       <c r="F7" t="n">
         <v>0</v>
       </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -613,6 +636,9 @@
       <c r="F8" t="n">
         <v>0</v>
       </c>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -635,6 +661,9 @@
       <c r="F9" t="n">
         <v>0</v>
       </c>
+      <c r="G9" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -657,6 +686,9 @@
       <c r="F10" t="n">
         <v>0</v>
       </c>
+      <c r="G10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -679,6 +711,9 @@
       <c r="F11" t="n">
         <v>0</v>
       </c>
+      <c r="G11" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -701,6 +736,9 @@
       <c r="F12" t="n">
         <v>0</v>
       </c>
+      <c r="G12" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -723,6 +761,9 @@
       <c r="F13" t="n">
         <v>0</v>
       </c>
+      <c r="G13" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -745,6 +786,9 @@
       <c r="F14" t="n">
         <v>0</v>
       </c>
+      <c r="G14" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -767,6 +811,9 @@
       <c r="F15" t="n">
         <v>0</v>
       </c>
+      <c r="G15" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -789,6 +836,9 @@
       <c r="F16" t="n">
         <v>0</v>
       </c>
+      <c r="G16" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -811,6 +861,9 @@
       <c r="F17" t="n">
         <v>0</v>
       </c>
+      <c r="G17" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -833,6 +886,9 @@
       <c r="F18" t="n">
         <v>0</v>
       </c>
+      <c r="G18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -855,6 +911,9 @@
       <c r="F19" t="n">
         <v>0</v>
       </c>
+      <c r="G19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -880,6 +939,9 @@
       <c r="F20" t="n">
         <v>0</v>
       </c>
+      <c r="G20" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -902,6 +964,9 @@
       <c r="F21" t="n">
         <v>0</v>
       </c>
+      <c r="G21" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -924,6 +989,9 @@
       <c r="F22" t="n">
         <v>94.404</v>
       </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -946,6 +1014,9 @@
       <c r="F23" t="n">
         <v>95.078</v>
       </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -968,6 +1039,9 @@
       <c r="F24" t="n">
         <v>96.009</v>
       </c>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -990,6 +1064,9 @@
       <c r="F25" t="n">
         <v>97.49299999999999</v>
       </c>
+      <c r="G25" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1012,6 +1089,9 @@
       <c r="F26" t="n">
         <v>98.375</v>
       </c>
+      <c r="G26" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1034,6 +1114,9 @@
       <c r="F27" t="n">
         <v>99.67400000000001</v>
       </c>
+      <c r="G27" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1056,6 +1139,9 @@
       <c r="F28" t="n">
         <v>100.716</v>
       </c>
+      <c r="G28" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1078,6 +1164,9 @@
       <c r="F29" t="n">
         <v>101.891</v>
       </c>
+      <c r="G29" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1100,6 +1189,9 @@
       <c r="F30" t="n">
         <v>102.868</v>
       </c>
+      <c r="G30" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1122,6 +1214,9 @@
       <c r="F31" t="n">
         <v>103.91</v>
       </c>
+      <c r="G31" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1144,6 +1239,9 @@
       <c r="F32" t="n">
         <v>104.745</v>
       </c>
+      <c r="G32" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1166,6 +1264,9 @@
       <c r="F33" t="n">
         <v>105.237</v>
       </c>
+      <c r="G33" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1188,6 +1289,9 @@
       <c r="F34" t="n">
         <v>105.554</v>
       </c>
+      <c r="G34" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1210,6 +1314,9 @@
       <c r="F35" t="n">
         <v>106.011</v>
       </c>
+      <c r="G35" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1232,6 +1339,9 @@
       <c r="F36" t="n">
         <v>106.279</v>
       </c>
+      <c r="G36" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1254,6 +1364,9 @@
       <c r="F37" t="n">
         <v>106.762</v>
       </c>
+      <c r="G37" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1276,6 +1389,9 @@
       <c r="F38" t="n">
         <v>107.489</v>
       </c>
+      <c r="G38" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1298,6 +1414,9 @@
       <c r="F39" t="n">
         <v>119.379</v>
       </c>
+      <c r="G39" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1320,6 +1439,9 @@
       <c r="F40" t="n">
         <v>167.633</v>
       </c>
+      <c r="G40" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1342,6 +1464,9 @@
       <c r="F41" t="n">
         <v>184.042</v>
       </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1364,6 +1489,9 @@
       <c r="F42" t="n">
         <v>184.805</v>
       </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1386,6 +1514,9 @@
       <c r="F43" t="n">
         <v>186.15</v>
       </c>
+      <c r="G43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1408,6 +1539,9 @@
       <c r="F44" t="n">
         <v>188.06</v>
       </c>
+      <c r="G44" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1430,6 +1564,9 @@
       <c r="F45" t="n">
         <v>189.204</v>
       </c>
+      <c r="G45" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1452,6 +1589,9 @@
       <c r="F46" t="n">
         <v>190.825</v>
       </c>
+      <c r="G46" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1474,6 +1614,9 @@
       <c r="F47" t="n">
         <v>191.958</v>
       </c>
+      <c r="G47" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1496,6 +1639,9 @@
       <c r="F48" t="n">
         <v>193.277</v>
       </c>
+      <c r="G48" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1518,6 +1664,9 @@
       <c r="F49" t="n">
         <v>194.457</v>
       </c>
+      <c r="G49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1540,6 +1689,9 @@
       <c r="F50" t="n">
         <v>195.696</v>
       </c>
+      <c r="G50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1562,6 +1714,9 @@
       <c r="F51" t="n">
         <v>196.687</v>
       </c>
+      <c r="G51" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1584,6 +1739,9 @@
       <c r="F52" t="n">
         <v>197.46</v>
       </c>
+      <c r="G52" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1606,6 +1764,9 @@
       <c r="F53" t="n">
         <v>198.253</v>
       </c>
+      <c r="G53" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1628,6 +1789,9 @@
       <c r="F54" t="n">
         <v>199.373</v>
       </c>
+      <c r="G54" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1650,6 +1814,9 @@
       <c r="F55" t="n">
         <v>200.519</v>
       </c>
+      <c r="G55" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1672,6 +1839,9 @@
       <c r="F56" t="n">
         <v>201.271</v>
       </c>
+      <c r="G56" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1694,6 +1864,9 @@
       <c r="F57" t="n">
         <v>202.38</v>
       </c>
+      <c r="G57" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1716,6 +1889,9 @@
       <c r="F58" t="n">
         <v>212.062</v>
       </c>
+      <c r="G58" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1738,6 +1914,9 @@
       <c r="F59" t="n">
         <v>265.278</v>
       </c>
+      <c r="G59" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1760,6 +1939,9 @@
       <c r="F60" t="n">
         <v>273.161</v>
       </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1782,6 +1964,9 @@
       <c r="F61" t="n">
         <v>273.848</v>
       </c>
+      <c r="G61" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1804,6 +1989,9 @@
       <c r="F62" t="n">
         <v>275.785</v>
       </c>
+      <c r="G62" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1826,6 +2014,9 @@
       <c r="F63" t="n">
         <v>278.223</v>
       </c>
+      <c r="G63" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1848,6 +2039,9 @@
       <c r="F64" t="n">
         <v>279.694</v>
       </c>
+      <c r="G64" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1870,6 +2064,9 @@
       <c r="F65" t="n">
         <v>281.448</v>
       </c>
+      <c r="G65" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1892,6 +2089,9 @@
       <c r="F66" t="n">
         <v>283.008</v>
       </c>
+      <c r="G66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1914,6 +2114,9 @@
       <c r="F67" t="n">
         <v>284.935</v>
       </c>
+      <c r="G67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1936,6 +2139,9 @@
       <c r="F68" t="n">
         <v>285.996</v>
       </c>
+      <c r="G68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1958,6 +2164,9 @@
       <c r="F69" t="n">
         <v>287.306</v>
       </c>
+      <c r="G69" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1980,6 +2189,9 @@
       <c r="F70" t="n">
         <v>288.396</v>
       </c>
+      <c r="G70" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2002,6 +2214,9 @@
       <c r="F71" t="n">
         <v>289.552</v>
       </c>
+      <c r="G71" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2024,6 +2239,9 @@
       <c r="F72" t="n">
         <v>290.521</v>
       </c>
+      <c r="G72" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2046,6 +2264,9 @@
       <c r="F73" t="n">
         <v>291.606</v>
       </c>
+      <c r="G73" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2068,6 +2289,9 @@
       <c r="F74" t="n">
         <v>293.768</v>
       </c>
+      <c r="G74" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2090,6 +2314,9 @@
       <c r="F75" t="n">
         <v>294.842</v>
       </c>
+      <c r="G75" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2112,6 +2339,9 @@
       <c r="F76" t="n">
         <v>296.254</v>
       </c>
+      <c r="G76" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2134,6 +2364,9 @@
       <c r="F77" t="n">
         <v>296.773</v>
       </c>
+      <c r="G77" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2156,6 +2389,9 @@
       <c r="F78" t="n">
         <v>304.876</v>
       </c>
+      <c r="G78" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2178,6 +2414,9 @@
       <c r="F79" t="n">
         <v>355.836</v>
       </c>
+      <c r="G79" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2200,6 +2439,9 @@
       <c r="F80" t="n">
         <v>362.205</v>
       </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2222,6 +2464,9 @@
       <c r="F81" t="n">
         <v>362.976</v>
       </c>
+      <c r="G81" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2244,6 +2489,9 @@
       <c r="F82" t="n">
         <v>365.086</v>
       </c>
+      <c r="G82" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2266,6 +2514,9 @@
       <c r="F83" t="n">
         <v>368.173</v>
       </c>
+      <c r="G83" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2288,6 +2539,9 @@
       <c r="F84" t="n">
         <v>369.682</v>
       </c>
+      <c r="G84" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2310,6 +2564,9 @@
       <c r="F85" t="n">
         <v>372.061</v>
       </c>
+      <c r="G85" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2332,6 +2589,9 @@
       <c r="F86" t="n">
         <v>373.771</v>
       </c>
+      <c r="G86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2354,6 +2614,9 @@
       <c r="F87" t="n">
         <v>375.581</v>
       </c>
+      <c r="G87" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2376,6 +2639,9 @@
       <c r="F88" t="n">
         <v>377.039</v>
       </c>
+      <c r="G88" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2398,6 +2664,9 @@
       <c r="F89" t="n">
         <v>378.311</v>
       </c>
+      <c r="G89" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2420,6 +2689,9 @@
       <c r="F90" t="n">
         <v>379.92</v>
       </c>
+      <c r="G90" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2442,6 +2714,9 @@
       <c r="F91" t="n">
         <v>381.205</v>
       </c>
+      <c r="G91" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2464,6 +2739,9 @@
       <c r="F92" t="n">
         <v>382.081</v>
       </c>
+      <c r="G92" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2489,6 +2767,9 @@
       <c r="F93" t="n">
         <v>383.372</v>
       </c>
+      <c r="G93" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2511,6 +2792,9 @@
       <c r="F94" t="n">
         <v>386.0790000000001</v>
       </c>
+      <c r="G94" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2533,6 +2817,9 @@
       <c r="F95" t="n">
         <v>387.952</v>
       </c>
+      <c r="G95" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2555,6 +2842,9 @@
       <c r="F96" t="n">
         <v>389.283</v>
       </c>
+      <c r="G96" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2577,6 +2867,9 @@
       <c r="F97" t="n">
         <v>390.375</v>
       </c>
+      <c r="G97" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2599,6 +2892,9 @@
       <c r="F98" t="n">
         <v>398.5309999999999</v>
       </c>
+      <c r="G98" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2621,6 +2917,9 @@
       <c r="F99" t="n">
         <v>446.23</v>
       </c>
+      <c r="G99" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2643,6 +2942,9 @@
       <c r="F100" t="n">
         <v>450.991</v>
       </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2665,6 +2967,9 @@
       <c r="F101" t="n">
         <v>452.103</v>
       </c>
+      <c r="G101" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2687,6 +2992,9 @@
       <c r="F102" t="n">
         <v>454.546</v>
       </c>
+      <c r="G102" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -2709,6 +3017,9 @@
       <c r="F103" t="n">
         <v>457.771</v>
       </c>
+      <c r="G103" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -2731,6 +3042,9 @@
       <c r="F104" t="n">
         <v>459.586</v>
       </c>
+      <c r="G104" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -2753,6 +3067,9 @@
       <c r="F105" t="n">
         <v>462.591</v>
       </c>
+      <c r="G105" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -2775,6 +3092,9 @@
       <c r="F106" t="n">
         <v>464.345</v>
       </c>
+      <c r="G106" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -2797,6 +3117,9 @@
       <c r="F107" t="n">
         <v>466.326</v>
       </c>
+      <c r="G107" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -2819,6 +3142,9 @@
       <c r="F108" t="n">
         <v>467.787</v>
       </c>
+      <c r="G108" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -2841,6 +3167,9 @@
       <c r="F109" t="n">
         <v>469.3869999999999</v>
       </c>
+      <c r="G109" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -2863,6 +3192,9 @@
       <c r="F110" t="n">
         <v>471.68</v>
       </c>
+      <c r="G110" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -2885,6 +3217,9 @@
       <c r="F111" t="n">
         <v>472.785</v>
       </c>
+      <c r="G111" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -2907,6 +3242,9 @@
       <c r="F112" t="n">
         <v>473.865</v>
       </c>
+      <c r="G112" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -2929,6 +3267,9 @@
       <c r="F113" t="n">
         <v>478.7090000000001</v>
       </c>
+      <c r="G113" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -2951,6 +3292,9 @@
       <c r="F114" t="n">
         <v>480.197</v>
       </c>
+      <c r="G114" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -2973,6 +3317,9 @@
       <c r="F115" t="n">
         <v>480.902</v>
       </c>
+      <c r="G115" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -2995,6 +3342,9 @@
       <c r="F116" t="n">
         <v>483.72</v>
       </c>
+      <c r="G116" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3017,6 +3367,9 @@
       <c r="F117" t="n">
         <v>491.6279999999999</v>
       </c>
+      <c r="G117" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3039,6 +3392,9 @@
       <c r="F118" t="n">
         <v>494.004</v>
       </c>
+      <c r="G118" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3061,6 +3417,9 @@
       <c r="F119" t="n">
         <v>536.866</v>
       </c>
+      <c r="G119" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3083,6 +3442,9 @@
       <c r="F120" t="n">
         <v>539.91</v>
       </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3105,6 +3467,9 @@
       <c r="F121" t="n">
         <v>541.186</v>
       </c>
+      <c r="G121" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3127,6 +3492,9 @@
       <c r="F122" t="n">
         <v>543.681</v>
       </c>
+      <c r="G122" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3149,6 +3517,9 @@
       <c r="F123" t="n">
         <v>546.9970000000001</v>
       </c>
+      <c r="G123" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3171,6 +3542,9 @@
       <c r="F124" t="n">
         <v>549.222</v>
       </c>
+      <c r="G124" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3193,6 +3567,9 @@
       <c r="F125" t="n">
         <v>553.099</v>
       </c>
+      <c r="G125" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3215,6 +3592,9 @@
       <c r="F126" t="n">
         <v>554.9159999999999</v>
       </c>
+      <c r="G126" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3237,6 +3617,9 @@
       <c r="F127" t="n">
         <v>556.991</v>
       </c>
+      <c r="G127" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3259,6 +3642,9 @@
       <c r="F128" t="n">
         <v>558.8009999999999</v>
       </c>
+      <c r="G128" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3281,6 +3667,9 @@
       <c r="F129" t="n">
         <v>560.241</v>
       </c>
+      <c r="G129" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3303,6 +3692,9 @@
       <c r="F130" t="n">
         <v>562.789</v>
       </c>
+      <c r="G130" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3325,6 +3717,9 @@
       <c r="F131" t="n">
         <v>564.0319999999999</v>
       </c>
+      <c r="G131" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3347,6 +3742,9 @@
       <c r="F132" t="n">
         <v>565.3969999999999</v>
       </c>
+      <c r="G132" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3369,6 +3767,9 @@
       <c r="F133" t="n">
         <v>570.904</v>
       </c>
+      <c r="G133" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3391,6 +3792,9 @@
       <c r="F134" t="n">
         <v>572.258</v>
       </c>
+      <c r="G134" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3413,6 +3817,9 @@
       <c r="F135" t="n">
         <v>573.013</v>
       </c>
+      <c r="G135" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3435,6 +3842,9 @@
       <c r="F136" t="n">
         <v>576.845</v>
       </c>
+      <c r="G136" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3457,6 +3867,9 @@
       <c r="F137" t="n">
         <v>584.4849999999999</v>
       </c>
+      <c r="G137" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3479,6 +3892,9 @@
       <c r="F138" t="n">
         <v>589.711</v>
       </c>
+      <c r="G138" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3501,6 +3917,9 @@
       <c r="F139" t="n">
         <v>627.4299999999999</v>
       </c>
+      <c r="G139" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3523,6 +3942,9 @@
       <c r="F140" t="n">
         <v>628.707</v>
       </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3545,6 +3967,9 @@
       <c r="F141" t="n">
         <v>630.051</v>
       </c>
+      <c r="G141" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3567,6 +3992,9 @@
       <c r="F142" t="n">
         <v>632.845</v>
       </c>
+      <c r="G142" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -3589,6 +4017,9 @@
       <c r="F143" t="n">
         <v>636.3080000000001</v>
       </c>
+      <c r="G143" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -3611,6 +4042,9 @@
       <c r="F144" t="n">
         <v>638.761</v>
       </c>
+      <c r="G144" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -3633,6 +4067,9 @@
       <c r="F145" t="n">
         <v>643.2430000000001</v>
       </c>
+      <c r="G145" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -3655,6 +4092,9 @@
       <c r="F146" t="n">
         <v>645.204</v>
       </c>
+      <c r="G146" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -3677,6 +4117,9 @@
       <c r="F147" t="n">
         <v>647.615</v>
       </c>
+      <c r="G147" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -3699,6 +4142,9 @@
       <c r="F148" t="n">
         <v>649.4209999999999</v>
       </c>
+      <c r="G148" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -3721,6 +4167,9 @@
       <c r="F149" t="n">
         <v>651.093</v>
       </c>
+      <c r="G149" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -3743,6 +4192,9 @@
       <c r="F150" t="n">
         <v>654.069</v>
       </c>
+      <c r="G150" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -3765,6 +4217,9 @@
       <c r="F151" t="n">
         <v>655.506</v>
       </c>
+      <c r="G151" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -3787,6 +4242,9 @@
       <c r="F152" t="n">
         <v>657.6389999999999</v>
       </c>
+      <c r="G152" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -3809,6 +4267,9 @@
       <c r="F153" t="n">
         <v>663.268</v>
       </c>
+      <c r="G153" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -3831,6 +4292,9 @@
       <c r="F154" t="n">
         <v>664.974</v>
       </c>
+      <c r="G154" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -3853,6 +4317,9 @@
       <c r="F155" t="n">
         <v>666.365</v>
       </c>
+      <c r="G155" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -3875,6 +4342,9 @@
       <c r="F156" t="n">
         <v>669.509</v>
       </c>
+      <c r="G156" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -3897,6 +4367,9 @@
       <c r="F157" t="n">
         <v>677.0899999999999</v>
       </c>
+      <c r="G157" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -3919,6 +4392,9 @@
       <c r="F158" t="n">
         <v>679.5360000000001</v>
       </c>
+      <c r="G158" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -3941,6 +4417,9 @@
       <c r="F159" t="n">
         <v>717.086</v>
       </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -3963,6 +4442,9 @@
       <c r="F160" t="n">
         <v>718.8040000000001</v>
       </c>
+      <c r="G160" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -3985,6 +4467,9 @@
       <c r="F161" t="n">
         <v>721.3399999999999</v>
       </c>
+      <c r="G161" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -4007,6 +4492,9 @@
       <c r="F162" t="n">
         <v>722.3330000000001</v>
       </c>
+      <c r="G162" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -4029,6 +4517,9 @@
       <c r="F163" t="n">
         <v>725.6320000000001</v>
       </c>
+      <c r="G163" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -4051,6 +4542,9 @@
       <c r="F164" t="n">
         <v>728.309</v>
       </c>
+      <c r="G164" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -4073,6 +4567,9 @@
       <c r="F165" t="n">
         <v>733.3180000000001</v>
       </c>
+      <c r="G165" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4095,6 +4592,9 @@
       <c r="F166" t="n">
         <v>735.5649999999999</v>
       </c>
+      <c r="G166" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4117,6 +4617,9 @@
       <c r="F167" t="n">
         <v>738.398</v>
       </c>
+      <c r="G167" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -4139,6 +4642,9 @@
       <c r="F168" t="n">
         <v>740.05</v>
       </c>
+      <c r="G168" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -4161,6 +4667,9 @@
       <c r="F169" t="n">
         <v>741.8819999999999</v>
       </c>
+      <c r="G169" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4183,6 +4692,9 @@
       <c r="F170" t="n">
         <v>745.207</v>
       </c>
+      <c r="G170" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4205,6 +4717,9 @@
       <c r="F171" t="n">
         <v>746.765</v>
       </c>
+      <c r="G171" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4227,6 +4742,9 @@
       <c r="F172" t="n">
         <v>748.7129999999999</v>
       </c>
+      <c r="G172" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4249,6 +4767,9 @@
       <c r="F173" t="n">
         <v>755.591</v>
       </c>
+      <c r="G173" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4271,6 +4792,9 @@
       <c r="F174" t="n">
         <v>756.3130000000001</v>
       </c>
+      <c r="G174" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -4296,6 +4820,9 @@
       <c r="F175" t="n">
         <v>760.198</v>
       </c>
+      <c r="G175" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4318,6 +4845,9 @@
       <c r="F176" t="n">
         <v>763.274</v>
       </c>
+      <c r="G176" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4340,6 +4870,9 @@
       <c r="F177" t="n">
         <v>769.655</v>
       </c>
+      <c r="G177" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4362,6 +4895,9 @@
       <c r="F178" t="n">
         <v>769.9690000000001</v>
       </c>
+      <c r="G178" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4384,6 +4920,9 @@
       <c r="F179" t="n">
         <v>805.477</v>
       </c>
+      <c r="G179" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4406,6 +4945,9 @@
       <c r="F180" t="n">
         <v>807.0380000000001</v>
       </c>
+      <c r="G180" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4428,6 +4970,9 @@
       <c r="F181" t="n">
         <v>811.5240000000001</v>
       </c>
+      <c r="G181" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4450,6 +4995,9 @@
       <c r="F182" t="n">
         <v>814.405</v>
       </c>
+      <c r="G182" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -4472,6 +5020,9 @@
       <c r="F183" t="n">
         <v>815.2600000000001</v>
       </c>
+      <c r="G183" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -4494,6 +5045,9 @@
       <c r="F184" t="n">
         <v>817.668</v>
       </c>
+      <c r="G184" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -4516,6 +5070,9 @@
       <c r="F185" t="n">
         <v>823.3940000000001</v>
       </c>
+      <c r="G185" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -4538,6 +5095,9 @@
       <c r="F186" t="n">
         <v>826.035</v>
       </c>
+      <c r="G186" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -4560,6 +5120,9 @@
       <c r="F187" t="n">
         <v>829.328</v>
       </c>
+      <c r="G187" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -4582,6 +5145,9 @@
       <c r="F188" t="n">
         <v>830.553</v>
       </c>
+      <c r="G188" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -4604,6 +5170,9 @@
       <c r="F189" t="n">
         <v>832.703</v>
       </c>
+      <c r="G189" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -4626,6 +5195,9 @@
       <c r="F190" t="n">
         <v>836.463</v>
       </c>
+      <c r="G190" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -4648,6 +5220,9 @@
       <c r="F191" t="n">
         <v>837.896</v>
       </c>
+      <c r="G191" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -4670,6 +5245,9 @@
       <c r="F192" t="n">
         <v>839.7589999999999</v>
       </c>
+      <c r="G192" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -4692,6 +5270,9 @@
       <c r="F193" t="n">
         <v>848.15</v>
       </c>
+      <c r="G193" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -4714,6 +5295,9 @@
       <c r="F194" t="n">
         <v>848.6220000000001</v>
       </c>
+      <c r="G194" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -4736,6 +5320,9 @@
       <c r="F195" t="n">
         <v>856.318</v>
       </c>
+      <c r="G195" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -4758,6 +5345,9 @@
       <c r="F196" t="n">
         <v>861.052</v>
       </c>
+      <c r="G196" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -4780,6 +5370,9 @@
       <c r="F197" t="n">
         <v>863.486</v>
       </c>
+      <c r="G197" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -4802,6 +5395,9 @@
       <c r="F198" t="n">
         <v>889.092</v>
       </c>
+      <c r="G198" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -4824,6 +5420,9 @@
       <c r="F199" t="n">
         <v>893.803</v>
       </c>
+      <c r="G199" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -4846,6 +5445,9 @@
       <c r="F200" t="n">
         <v>895.6950000000002</v>
       </c>
+      <c r="G200" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -4868,6 +5470,9 @@
       <c r="F201" t="n">
         <v>900.3990000000001</v>
       </c>
+      <c r="G201" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -4890,6 +5495,9 @@
       <c r="F202" t="n">
         <v>904.8720000000001</v>
       </c>
+      <c r="G202" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -4912,6 +5520,9 @@
       <c r="F203" t="n">
         <v>907.221</v>
       </c>
+      <c r="G203" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -4934,6 +5545,9 @@
       <c r="F204" t="n">
         <v>909.145</v>
       </c>
+      <c r="G204" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -4956,6 +5570,9 @@
       <c r="F205" t="n">
         <v>913.5040000000001</v>
       </c>
+      <c r="G205" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -4978,6 +5595,9 @@
       <c r="F206" t="n">
         <v>916.331</v>
       </c>
+      <c r="G206" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -5000,6 +5620,9 @@
       <c r="F207" t="n">
         <v>920.107</v>
       </c>
+      <c r="G207" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -5022,6 +5645,9 @@
       <c r="F208" t="n">
         <v>921.044</v>
       </c>
+      <c r="G208" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -5044,6 +5670,9 @@
       <c r="F209" t="n">
         <v>923.1799999999999</v>
       </c>
+      <c r="G209" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -5066,6 +5695,9 @@
       <c r="F210" t="n">
         <v>927.3499999999999</v>
       </c>
+      <c r="G210" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -5088,6 +5720,9 @@
       <c r="F211" t="n">
         <v>929.1179999999999</v>
       </c>
+      <c r="G211" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -5110,6 +5745,9 @@
       <c r="F212" t="n">
         <v>930.6779999999999</v>
       </c>
+      <c r="G212" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -5132,6 +5770,9 @@
       <c r="F213" t="n">
         <v>940.866</v>
       </c>
+      <c r="G213" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -5154,6 +5795,9 @@
       <c r="F214" t="n">
         <v>941.317</v>
       </c>
+      <c r="G214" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -5176,6 +5820,9 @@
       <c r="F215" t="n">
         <v>948.98</v>
       </c>
+      <c r="G215" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -5198,6 +5845,9 @@
       <c r="F216" t="n">
         <v>951.496</v>
       </c>
+      <c r="G216" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -5220,6 +5870,9 @@
       <c r="F217" t="n">
         <v>956.485</v>
       </c>
+      <c r="G217" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -5242,6 +5895,9 @@
       <c r="F218" t="n">
         <v>982.2670000000001</v>
       </c>
+      <c r="G218" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -5264,6 +5920,9 @@
       <c r="F219" t="n">
         <v>984.0880000000002</v>
       </c>
+      <c r="G219" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -5286,6 +5945,9 @@
       <c r="F220" t="n">
         <v>989.4910000000001</v>
       </c>
+      <c r="G220" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -5308,6 +5970,9 @@
       <c r="F221" t="n">
         <v>991.765</v>
       </c>
+      <c r="G221" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -5330,6 +5995,9 @@
       <c r="F222" t="n">
         <v>994.3380000000001</v>
       </c>
+      <c r="G222" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -5352,6 +6020,9 @@
       <c r="F223" t="n">
         <v>996.63</v>
       </c>
+      <c r="G223" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -5374,6 +6045,9 @@
       <c r="F224" t="n">
         <v>1000.717</v>
       </c>
+      <c r="G224" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -5396,6 +6070,9 @@
       <c r="F225" t="n">
         <v>1003.833</v>
       </c>
+      <c r="G225" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -5418,6 +6095,9 @@
       <c r="F226" t="n">
         <v>1006.668</v>
       </c>
+      <c r="G226" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -5440,6 +6120,9 @@
       <c r="F227" t="n">
         <v>1010.5</v>
       </c>
+      <c r="G227" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -5462,6 +6145,9 @@
       <c r="F228" t="n">
         <v>1011.803</v>
       </c>
+      <c r="G228" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -5484,6 +6170,9 @@
       <c r="F229" t="n">
         <v>1013.531</v>
       </c>
+      <c r="G229" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -5506,6 +6195,9 @@
       <c r="F230" t="n">
         <v>1018.488</v>
       </c>
+      <c r="G230" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -5528,6 +6220,9 @@
       <c r="F231" t="n">
         <v>1020.277</v>
       </c>
+      <c r="G231" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -5550,6 +6245,9 @@
       <c r="F232" t="n">
         <v>1021.828</v>
       </c>
+      <c r="G232" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -5572,6 +6270,9 @@
       <c r="F233" t="n">
         <v>1034.004</v>
       </c>
+      <c r="G233" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -5594,6 +6295,9 @@
       <c r="F234" t="n">
         <v>1041.957</v>
       </c>
+      <c r="G234" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -5616,6 +6320,9 @@
       <c r="F235" t="n">
         <v>1042.854</v>
       </c>
+      <c r="G235" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -5638,6 +6345,9 @@
       <c r="F236" t="n">
         <v>1050.711</v>
       </c>
+      <c r="G236" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -5660,6 +6370,9 @@
       <c r="F237" t="n">
         <v>1051.863</v>
       </c>
+      <c r="G237" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -5682,6 +6395,9 @@
       <c r="F238" t="n">
         <v>1070.691</v>
       </c>
+      <c r="G238" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -5704,6 +6420,9 @@
       <c r="F239" t="n">
         <v>1072.309</v>
       </c>
+      <c r="G239" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -5726,6 +6445,9 @@
       <c r="F240" t="n">
         <v>1078.28</v>
       </c>
+      <c r="G240" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -5748,6 +6470,9 @@
       <c r="F241" t="n">
         <v>1083.839</v>
       </c>
+      <c r="G241" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -5770,6 +6495,9 @@
       <c r="F242" t="n">
         <v>1084.834</v>
       </c>
+      <c r="G242" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -5792,6 +6520,9 @@
       <c r="F243" t="n">
         <v>1086.159</v>
       </c>
+      <c r="G243" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -5814,6 +6545,9 @@
       <c r="F244" t="n">
         <v>1091.932</v>
       </c>
+      <c r="G244" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -5836,6 +6570,9 @@
       <c r="F245" t="n">
         <v>1094.256</v>
       </c>
+      <c r="G245" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -5858,6 +6595,9 @@
       <c r="F246" t="n">
         <v>1096.851</v>
       </c>
+      <c r="G246" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -5880,6 +6620,9 @@
       <c r="F247" t="n">
         <v>1100.802</v>
       </c>
+      <c r="G247" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -5902,6 +6645,9 @@
       <c r="F248" t="n">
         <v>1102.182</v>
       </c>
+      <c r="G248" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -5924,6 +6670,9 @@
       <c r="F249" t="n">
         <v>1103.978</v>
       </c>
+      <c r="G249" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -5946,6 +6695,9 @@
       <c r="F250" t="n">
         <v>1109.653</v>
       </c>
+      <c r="G250" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -5968,6 +6720,9 @@
       <c r="F251" t="n">
         <v>1111.136</v>
       </c>
+      <c r="G251" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -5990,6 +6745,9 @@
       <c r="F252" t="n">
         <v>1113.051</v>
       </c>
+      <c r="G252" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -6012,6 +6770,9 @@
       <c r="F253" t="n">
         <v>1124.278</v>
       </c>
+      <c r="G253" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -6034,6 +6795,9 @@
       <c r="F254" t="n">
         <v>1134.215</v>
       </c>
+      <c r="G254" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -6056,6 +6820,9 @@
       <c r="F255" t="n">
         <v>1134.649</v>
       </c>
+      <c r="G255" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -6078,6 +6845,9 @@
       <c r="F256" t="n">
         <v>1143.536</v>
       </c>
+      <c r="G256" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -6100,6 +6870,9 @@
       <c r="F257" t="n">
         <v>1145.71</v>
       </c>
+      <c r="G257" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -6122,6 +6895,9 @@
       <c r="F258" t="n">
         <v>1158.808</v>
       </c>
+      <c r="G258" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -6144,6 +6920,9 @@
       <c r="F259" t="n">
         <v>1160.681</v>
       </c>
+      <c r="G259" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -6166,6 +6945,9 @@
       <c r="F260" t="n">
         <v>1166.657</v>
       </c>
+      <c r="G260" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -6188,6 +6970,9 @@
       <c r="F261" t="n">
         <v>1172.78</v>
       </c>
+      <c r="G261" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -6210,6 +6995,9 @@
       <c r="F262" t="n">
         <v>1175.395</v>
       </c>
+      <c r="G262" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -6232,6 +7020,9 @@
       <c r="F263" t="n">
         <v>1178.106</v>
       </c>
+      <c r="G263" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -6254,6 +7045,9 @@
       <c r="F264" t="n">
         <v>1183.045</v>
       </c>
+      <c r="G264" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -6276,6 +7070,9 @@
       <c r="F265" t="n">
         <v>1184.898</v>
       </c>
+      <c r="G265" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -6298,6 +7095,9 @@
       <c r="F266" t="n">
         <v>1191.009</v>
       </c>
+      <c r="G266" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -6320,6 +7120,9 @@
       <c r="F267" t="n">
         <v>1192.693</v>
       </c>
+      <c r="G267" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -6342,6 +7145,9 @@
       <c r="F268" t="n">
         <v>1194.341</v>
       </c>
+      <c r="G268" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -6364,6 +7170,9 @@
       <c r="F269" t="n">
         <v>1200.835</v>
       </c>
+      <c r="G269" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -6386,6 +7195,9 @@
       <c r="F270" t="n">
         <v>1202.29</v>
       </c>
+      <c r="G270" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -6408,6 +7220,9 @@
       <c r="F271" t="n">
         <v>1203.917</v>
       </c>
+      <c r="G271" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -6430,6 +7245,9 @@
       <c r="F272" t="n">
         <v>1214.317</v>
       </c>
+      <c r="G272" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -6452,6 +7270,9 @@
       <c r="F273" t="n">
         <v>1226.305</v>
       </c>
+      <c r="G273" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -6474,6 +7295,9 @@
       <c r="F274" t="n">
         <v>1226.939</v>
       </c>
+      <c r="G274" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -6496,6 +7320,9 @@
       <c r="F275" t="n">
         <v>1236.025</v>
       </c>
+      <c r="G275" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -6518,6 +7345,9 @@
       <c r="F276" t="n">
         <v>1247.845</v>
       </c>
+      <c r="G276" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -6540,6 +7370,9 @@
       <c r="F277" t="n">
         <v>1247.846</v>
       </c>
+      <c r="G277" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -6562,6 +7395,9 @@
       <c r="F278" t="n">
         <v>1249.371</v>
       </c>
+      <c r="G278" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -6584,6 +7420,9 @@
       <c r="F279" t="n">
         <v>1255.871</v>
       </c>
+      <c r="G279" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -6606,6 +7445,9 @@
       <c r="F280" t="n">
         <v>1262.309</v>
       </c>
+      <c r="G280" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -6628,6 +7470,9 @@
       <c r="F281" t="n">
         <v>1264.954</v>
       </c>
+      <c r="G281" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -6650,6 +7495,9 @@
       <c r="F282" t="n">
         <v>1270.14</v>
       </c>
+      <c r="G282" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -6672,6 +7520,9 @@
       <c r="F283" t="n">
         <v>1273.722</v>
       </c>
+      <c r="G283" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -6694,6 +7545,9 @@
       <c r="F284" t="n">
         <v>1275.265</v>
       </c>
+      <c r="G284" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -6716,6 +7570,9 @@
       <c r="F285" t="n">
         <v>1281.498</v>
       </c>
+      <c r="G285" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -6738,6 +7595,9 @@
       <c r="F286" t="n">
         <v>1283.222</v>
       </c>
+      <c r="G286" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -6760,6 +7620,9 @@
       <c r="F287" t="n">
         <v>1284.889</v>
       </c>
+      <c r="G287" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -6782,6 +7645,9 @@
       <c r="F288" t="n">
         <v>1291.853</v>
       </c>
+      <c r="G288" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -6804,6 +7670,9 @@
       <c r="F289" t="n">
         <v>1293.378</v>
       </c>
+      <c r="G289" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -6829,6 +7698,9 @@
       <c r="F290" t="n">
         <v>1295.109</v>
       </c>
+      <c r="G290" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -6851,6 +7723,9 @@
       <c r="F291" t="n">
         <v>1304.355</v>
       </c>
+      <c r="G291" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -6876,6 +7751,9 @@
       <c r="F292" t="n">
         <v>1318.177</v>
       </c>
+      <c r="G292" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -6898,6 +7776,9 @@
       <c r="F293" t="n">
         <v>1318.605</v>
       </c>
+      <c r="G293" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -6920,6 +7801,9 @@
       <c r="F294" t="n">
         <v>1328.315</v>
       </c>
+      <c r="G294" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -6942,6 +7826,9 @@
       <c r="F295" t="n">
         <v>1336.339</v>
       </c>
+      <c r="G295" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -6964,6 +7851,9 @@
       <c r="F296" t="n">
         <v>1337.878</v>
       </c>
+      <c r="G296" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -6986,6 +7876,9 @@
       <c r="F297" t="n">
         <v>1343.278</v>
       </c>
+      <c r="G297" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -7008,6 +7901,9 @@
       <c r="F298" t="n">
         <v>1344.626</v>
       </c>
+      <c r="G298" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -7030,6 +7926,9 @@
       <c r="F299" t="n">
         <v>1351.727</v>
       </c>
+      <c r="G299" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -7052,6 +7951,9 @@
       <c r="F300" t="n">
         <v>1354.264</v>
       </c>
+      <c r="G300" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -7074,6 +7976,9 @@
       <c r="F301" t="n">
         <v>1361.817</v>
       </c>
+      <c r="G301" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -7096,6 +8001,9 @@
       <c r="F302" t="n">
         <v>1364.665</v>
       </c>
+      <c r="G302" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -7118,6 +8026,9 @@
       <c r="F303" t="n">
         <v>1365.923</v>
       </c>
+      <c r="G303" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -7140,6 +8051,9 @@
       <c r="F304" t="n">
         <v>1371.665</v>
       </c>
+      <c r="G304" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -7162,6 +8076,9 @@
       <c r="F305" t="n">
         <v>1373.445</v>
       </c>
+      <c r="G305" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -7184,6 +8101,9 @@
       <c r="F306" t="n">
         <v>1375.186</v>
       </c>
+      <c r="G306" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -7209,6 +8129,9 @@
       <c r="F307" t="n">
         <v>1382.849</v>
       </c>
+      <c r="G307" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -7234,6 +8157,9 @@
       <c r="F308" t="n">
         <v>1384.382</v>
       </c>
+      <c r="G308" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -7256,6 +8182,9 @@
       <c r="F309" t="n">
         <v>1394.294</v>
       </c>
+      <c r="G309" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -7278,6 +8207,9 @@
       <c r="F310" t="n">
         <v>1403.586</v>
       </c>
+      <c r="G310" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -7300,6 +8232,9 @@
       <c r="F311" t="n">
         <v>1411.069</v>
       </c>
+      <c r="G311" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -7322,6 +8257,9 @@
       <c r="F312" t="n">
         <v>1420.683</v>
       </c>
+      <c r="G312" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -7347,6 +8285,9 @@
       <c r="F313" t="n">
         <v>1424.777</v>
       </c>
+      <c r="G313" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -7369,6 +8310,9 @@
       <c r="F314" t="n">
         <v>1426.099</v>
       </c>
+      <c r="G314" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -7391,6 +8335,9 @@
       <c r="F315" t="n">
         <v>1434.411</v>
       </c>
+      <c r="G315" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -7413,6 +8360,9 @@
       <c r="F316" t="n">
         <v>1434.879</v>
       </c>
+      <c r="G316" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -7435,6 +8385,9 @@
       <c r="F317" t="n">
         <v>1441.018</v>
       </c>
+      <c r="G317" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -7457,6 +8410,9 @@
       <c r="F318" t="n">
         <v>1443.298</v>
       </c>
+      <c r="G318" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -7479,6 +8435,9 @@
       <c r="F319" t="n">
         <v>1453.307</v>
       </c>
+      <c r="G319" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -7501,6 +8460,9 @@
       <c r="F320" t="n">
         <v>1456.288</v>
       </c>
+      <c r="G320" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -7523,6 +8485,9 @@
       <c r="F321" t="n">
         <v>1458.134</v>
       </c>
+      <c r="G321" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -7545,6 +8510,9 @@
       <c r="F322" t="n">
         <v>1462.186</v>
       </c>
+      <c r="G322" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -7570,6 +8538,9 @@
       <c r="F323" t="n">
         <v>1463.649</v>
       </c>
+      <c r="G323" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -7592,6 +8563,9 @@
       <c r="F324" t="n">
         <v>1465.274</v>
       </c>
+      <c r="G324" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -7614,6 +8588,9 @@
       <c r="F325" t="n">
         <v>1484.239</v>
       </c>
+      <c r="G325" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -7636,6 +8613,9 @@
       <c r="F326" t="n">
         <v>1492.318</v>
       </c>
+      <c r="G326" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -7658,6 +8638,9 @@
       <c r="F327" t="n">
         <v>1494.274</v>
       </c>
+      <c r="G327" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -7680,6 +8663,9 @@
       <c r="F328" t="n">
         <v>1498.881</v>
       </c>
+      <c r="G328" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -7702,6 +8688,9 @@
       <c r="F329" t="n">
         <v>1501.867</v>
       </c>
+      <c r="G329" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -7724,6 +8713,9 @@
       <c r="F330" t="n">
         <v>1512.867</v>
       </c>
+      <c r="G330" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -7746,6 +8738,9 @@
       <c r="F331" t="n">
         <v>1514.463</v>
       </c>
+      <c r="G331" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -7768,6 +8763,9 @@
       <c r="F332" t="n">
         <v>1523.462</v>
       </c>
+      <c r="G332" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -7790,6 +8788,9 @@
       <c r="F333" t="n">
         <v>1530.275</v>
       </c>
+      <c r="G333" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -7812,6 +8813,9 @@
       <c r="F334" t="n">
         <v>1531.122</v>
       </c>
+      <c r="G334" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -7834,6 +8838,9 @@
       <c r="F335" t="n">
         <v>1532.806</v>
       </c>
+      <c r="G335" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -7856,6 +8863,9 @@
       <c r="F336" t="n">
         <v>1534.614</v>
       </c>
+      <c r="G336" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -7878,6 +8888,9 @@
       <c r="F337" t="n">
         <v>1544.828</v>
       </c>
+      <c r="G337" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -7900,6 +8913,9 @@
       <c r="F338" t="n">
         <v>1546.745</v>
       </c>
+      <c r="G338" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -7922,6 +8938,9 @@
       <c r="F339" t="n">
         <v>1549.144</v>
       </c>
+      <c r="G339" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -7947,6 +8966,9 @@
       <c r="F340" t="n">
         <v>1552.844</v>
       </c>
+      <c r="G340" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -7969,6 +8991,9 @@
       <c r="F341" t="n">
         <v>1555.556</v>
       </c>
+      <c r="G341" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -7991,6 +9016,9 @@
       <c r="F342" t="n">
         <v>1572.008</v>
       </c>
+      <c r="G342" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -8013,6 +9041,9 @@
       <c r="F343" t="n">
         <v>1574.052</v>
       </c>
+      <c r="G343" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -8035,6 +9066,9 @@
       <c r="F344" t="n">
         <v>1588.799</v>
       </c>
+      <c r="G344" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -8057,6 +9091,9 @@
       <c r="F345" t="n">
         <v>1589.651</v>
       </c>
+      <c r="G345" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -8079,6 +9116,9 @@
       <c r="F346" t="n">
         <v>1590.397</v>
       </c>
+      <c r="G346" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -8101,6 +9141,9 @@
       <c r="F347" t="n">
         <v>1592.643</v>
       </c>
+      <c r="G347" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -8123,6 +9166,9 @@
       <c r="F348" t="n">
         <v>1602.941</v>
       </c>
+      <c r="G348" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -8145,6 +9191,9 @@
       <c r="F349" t="n">
         <v>1606.539</v>
       </c>
+      <c r="G349" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -8167,6 +9216,9 @@
       <c r="F350" t="n">
         <v>1612.322</v>
       </c>
+      <c r="G350" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -8189,6 +9241,9 @@
       <c r="F351" t="n">
         <v>1618.973</v>
       </c>
+      <c r="G351" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -8211,6 +9266,9 @@
       <c r="F352" t="n">
         <v>1621.965</v>
       </c>
+      <c r="G352" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -8233,6 +9291,9 @@
       <c r="F353" t="n">
         <v>1624.69</v>
       </c>
+      <c r="G353" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -8255,6 +9316,9 @@
       <c r="F354" t="n">
         <v>1626.879</v>
       </c>
+      <c r="G354" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -8277,6 +9341,9 @@
       <c r="F355" t="n">
         <v>1636.007</v>
       </c>
+      <c r="G355" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -8299,6 +9366,9 @@
       <c r="F356" t="n">
         <v>1637.297</v>
       </c>
+      <c r="G356" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -8321,6 +9391,9 @@
       <c r="F357" t="n">
         <v>1639.61</v>
       </c>
+      <c r="G357" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -8343,6 +9416,9 @@
       <c r="F358" t="n">
         <v>1645.195</v>
       </c>
+      <c r="G358" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -8365,6 +9441,9 @@
       <c r="F359" t="n">
         <v>1660.283</v>
       </c>
+      <c r="G359" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -8387,6 +9466,9 @@
       <c r="F360" t="n">
         <v>1663.702</v>
       </c>
+      <c r="G360" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -8409,6 +9491,9 @@
       <c r="F361" t="n">
         <v>1666.375</v>
       </c>
+      <c r="G361" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -8431,6 +9516,9 @@
       <c r="F362" t="n">
         <v>1679.254</v>
       </c>
+      <c r="G362" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -8453,6 +9541,9 @@
       <c r="F363" t="n">
         <v>1680.342</v>
       </c>
+      <c r="G363" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -8475,6 +9566,9 @@
       <c r="F364" t="n">
         <v>1681.126</v>
       </c>
+      <c r="G364" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -8497,6 +9591,9 @@
       <c r="F365" t="n">
         <v>1682.916</v>
       </c>
+      <c r="G365" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -8519,6 +9616,9 @@
       <c r="F366" t="n">
         <v>1691.059</v>
       </c>
+      <c r="G366" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -8541,6 +9641,9 @@
       <c r="F367" t="n">
         <v>1698.591</v>
       </c>
+      <c r="G367" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -8563,6 +9666,9 @@
       <c r="F368" t="n">
         <v>1701.102</v>
       </c>
+      <c r="G368" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -8585,6 +9691,9 @@
       <c r="F369" t="n">
         <v>1707.889</v>
       </c>
+      <c r="G369" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -8607,6 +9716,9 @@
       <c r="F370" t="n">
         <v>1710.798</v>
       </c>
+      <c r="G370" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -8629,6 +9741,9 @@
       <c r="F371" t="n">
         <v>1712.241</v>
       </c>
+      <c r="G371" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -8651,6 +9766,9 @@
       <c r="F372" t="n">
         <v>1718.189</v>
       </c>
+      <c r="G372" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -8676,6 +9794,9 @@
       <c r="F373" t="n">
         <v>1728.14</v>
       </c>
+      <c r="G373" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -8698,6 +9819,9 @@
       <c r="F374" t="n">
         <v>1729.322</v>
       </c>
+      <c r="G374" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -8720,6 +9844,9 @@
       <c r="F375" t="n">
         <v>1730.129</v>
       </c>
+      <c r="G375" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -8742,6 +9869,9 @@
       <c r="F376" t="n">
         <v>1735.18</v>
       </c>
+      <c r="G376" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -8764,6 +9894,9 @@
       <c r="F377" t="n">
         <v>1753.235</v>
       </c>
+      <c r="G377" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -8786,6 +9919,9 @@
       <c r="F378" t="n">
         <v>1756.566</v>
       </c>
+      <c r="G378" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -8808,6 +9944,9 @@
       <c r="F379" t="n">
         <v>1757.349</v>
       </c>
+      <c r="G379" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -8830,6 +9969,9 @@
       <c r="F380" t="n">
         <v>1769.905</v>
       </c>
+      <c r="G380" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -8852,6 +9994,9 @@
       <c r="F381" t="n">
         <v>1771.126</v>
       </c>
+      <c r="G381" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -8874,6 +10019,9 @@
       <c r="F382" t="n">
         <v>1772.217</v>
       </c>
+      <c r="G382" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -8896,6 +10044,9 @@
       <c r="F383" t="n">
         <v>1773.594</v>
       </c>
+      <c r="G383" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -8918,6 +10069,9 @@
       <c r="F384" t="n">
         <v>1779.283</v>
       </c>
+      <c r="G384" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -8940,6 +10094,9 @@
       <c r="F385" t="n">
         <v>1790.144</v>
       </c>
+      <c r="G385" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -8962,6 +10119,9 @@
       <c r="F386" t="n">
         <v>1792.393</v>
       </c>
+      <c r="G386" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -8984,6 +10144,9 @@
       <c r="F387" t="n">
         <v>1796.725</v>
       </c>
+      <c r="G387" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -9006,6 +10169,9 @@
       <c r="F388" t="n">
         <v>1799.841</v>
       </c>
+      <c r="G388" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -9028,6 +10194,9 @@
       <c r="F389" t="n">
         <v>1800.714</v>
       </c>
+      <c r="G389" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -9050,6 +10219,9 @@
       <c r="F390" t="n">
         <v>1809.967</v>
       </c>
+      <c r="G390" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -9072,6 +10244,9 @@
       <c r="F391" t="n">
         <v>1820.71</v>
       </c>
+      <c r="G391" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -9094,6 +10269,9 @@
       <c r="F392" t="n">
         <v>1821.874</v>
       </c>
+      <c r="G392" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -9116,6 +10294,9 @@
       <c r="F393" t="n">
         <v>1825.03</v>
       </c>
+      <c r="G393" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -9138,6 +10319,9 @@
       <c r="F394" t="n">
         <v>1835.622</v>
       </c>
+      <c r="G394" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -9160,6 +10344,9 @@
       <c r="F395" t="n">
         <v>1842.85</v>
       </c>
+      <c r="G395" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -9182,6 +10369,9 @@
       <c r="F396" t="n">
         <v>1846.162</v>
       </c>
+      <c r="G396" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -9204,6 +10394,9 @@
       <c r="F397" t="n">
         <v>1847.397</v>
       </c>
+      <c r="G397" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -9226,6 +10419,9 @@
       <c r="F398" t="n">
         <v>1860.39</v>
       </c>
+      <c r="G398" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -9248,6 +10444,9 @@
       <c r="F399" t="n">
         <v>1861.765</v>
       </c>
+      <c r="G399" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -9270,6 +10469,9 @@
       <c r="F400" t="n">
         <v>1862.996</v>
       </c>
+      <c r="G400" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -9292,6 +10494,9 @@
       <c r="F401" t="n">
         <v>1864.207</v>
       </c>
+      <c r="G401" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -9314,6 +10519,9 @@
       <c r="F402" t="n">
         <v>1867.861</v>
       </c>
+      <c r="G402" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -9336,6 +10544,9 @@
       <c r="F403" t="n">
         <v>1879.053</v>
       </c>
+      <c r="G403" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -9358,6 +10569,9 @@
       <c r="F404" t="n">
         <v>1884.965</v>
       </c>
+      <c r="G404" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -9380,6 +10594,9 @@
       <c r="F405" t="n">
         <v>1885.712</v>
       </c>
+      <c r="G405" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -9402,6 +10619,9 @@
       <c r="F406" t="n">
         <v>1889.221</v>
       </c>
+      <c r="G406" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -9424,6 +10644,9 @@
       <c r="F407" t="n">
         <v>1889.695</v>
       </c>
+      <c r="G407" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -9446,6 +10669,9 @@
       <c r="F408" t="n">
         <v>1901.59</v>
       </c>
+      <c r="G408" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -9468,6 +10694,9 @@
       <c r="F409" t="n">
         <v>1911.828</v>
       </c>
+      <c r="G409" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -9490,6 +10719,9 @@
       <c r="F410" t="n">
         <v>1913.015</v>
       </c>
+      <c r="G410" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -9512,6 +10744,9 @@
       <c r="F411" t="n">
         <v>1915.031</v>
       </c>
+      <c r="G411" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -9534,6 +10769,9 @@
       <c r="F412" t="n">
         <v>1930.626</v>
       </c>
+      <c r="G412" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -9556,6 +10794,9 @@
       <c r="F413" t="n">
         <v>1933.013</v>
       </c>
+      <c r="G413" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -9578,6 +10819,9 @@
       <c r="F414" t="n">
         <v>1935.846</v>
       </c>
+      <c r="G414" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -9600,6 +10844,9 @@
       <c r="F415" t="n">
         <v>1937.335</v>
       </c>
+      <c r="G415" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -9622,6 +10869,9 @@
       <c r="F416" t="n">
         <v>1950.964</v>
       </c>
+      <c r="G416" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -9644,6 +10894,9 @@
       <c r="F417" t="n">
         <v>1952.474</v>
       </c>
+      <c r="G417" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -9666,6 +10919,9 @@
       <c r="F418" t="n">
         <v>1953.585</v>
       </c>
+      <c r="G418" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -9688,6 +10944,9 @@
       <c r="F419" t="n">
         <v>1955.189</v>
       </c>
+      <c r="G419" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -9713,6 +10972,9 @@
       <c r="F420" t="n">
         <v>1956.362</v>
       </c>
+      <c r="G420" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -9735,6 +10997,9 @@
       <c r="F421" t="n">
         <v>1968.018</v>
       </c>
+      <c r="G421" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -9757,6 +11022,9 @@
       <c r="F422" t="n">
         <v>1975.197</v>
       </c>
+      <c r="G422" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -9779,6 +11047,9 @@
       <c r="F423" t="n">
         <v>1979.055000000001</v>
       </c>
+      <c r="G423" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -9801,6 +11072,9 @@
       <c r="F424" t="n">
         <v>1979.574</v>
       </c>
+      <c r="G424" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -9823,6 +11097,9 @@
       <c r="F425" t="n">
         <v>1992.868</v>
       </c>
+      <c r="G425" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -9845,6 +11122,9 @@
       <c r="F426" t="n">
         <v>2002.972</v>
       </c>
+      <c r="G426" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -9867,6 +11147,9 @@
       <c r="F427" t="n">
         <v>2005.073</v>
       </c>
+      <c r="G427" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -9889,6 +11172,9 @@
       <c r="F428" t="n">
         <v>2006.864</v>
       </c>
+      <c r="G428" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -9911,6 +11197,9 @@
       <c r="F429" t="n">
         <v>2019.592</v>
       </c>
+      <c r="G429" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -9933,6 +11222,9 @@
       <c r="F430" t="n">
         <v>2022.801</v>
       </c>
+      <c r="G430" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -9955,6 +11247,9 @@
       <c r="F431" t="n">
         <v>2025.765</v>
       </c>
+      <c r="G431" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -9977,6 +11272,9 @@
       <c r="F432" t="n">
         <v>2027.605</v>
       </c>
+      <c r="G432" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -9999,6 +11297,9 @@
       <c r="F433" t="n">
         <v>2041.563</v>
       </c>
+      <c r="G433" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -10021,6 +11322,9 @@
       <c r="F434" t="n">
         <v>2043.044</v>
       </c>
+      <c r="G434" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -10043,6 +11347,9 @@
       <c r="F435" t="n">
         <v>2044.352</v>
       </c>
+      <c r="G435" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -10065,6 +11372,9 @@
       <c r="F436" t="n">
         <v>2047.439</v>
       </c>
+      <c r="G436" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -10087,6 +11397,9 @@
       <c r="F437" t="n">
         <v>2056.889</v>
       </c>
+      <c r="G437" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -10109,6 +11422,9 @@
       <c r="F438" t="n">
         <v>2063.357</v>
       </c>
+      <c r="G438" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -10131,6 +11447,9 @@
       <c r="F439" t="n">
         <v>2063.813000000001</v>
       </c>
+      <c r="G439" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -10153,6 +11472,9 @@
       <c r="F440" t="n">
         <v>2068.511</v>
       </c>
+      <c r="G440" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -10175,6 +11497,9 @@
       <c r="F441" t="n">
         <v>2069.031</v>
       </c>
+      <c r="G441" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -10197,6 +11522,9 @@
       <c r="F442" t="n">
         <v>2084.454</v>
       </c>
+      <c r="G442" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -10219,6 +11547,9 @@
       <c r="F443" t="n">
         <v>2094.128</v>
       </c>
+      <c r="G443" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -10241,6 +11572,9 @@
       <c r="F444" t="n">
         <v>2095.315</v>
       </c>
+      <c r="G444" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -10263,6 +11597,9 @@
       <c r="F445" t="n">
         <v>2097.907</v>
       </c>
+      <c r="G445" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -10285,6 +11622,9 @@
       <c r="F446" t="n">
         <v>2108.633</v>
       </c>
+      <c r="G446" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -10307,6 +11647,9 @@
       <c r="F447" t="n">
         <v>2112.248</v>
       </c>
+      <c r="G447" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -10329,6 +11672,9 @@
       <c r="F448" t="n">
         <v>2115.736</v>
       </c>
+      <c r="G448" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -10351,6 +11697,9 @@
       <c r="F449" t="n">
         <v>2117.872</v>
       </c>
+      <c r="G449" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -10373,6 +11722,9 @@
       <c r="F450" t="n">
         <v>2132.195</v>
       </c>
+      <c r="G450" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -10395,6 +11747,9 @@
       <c r="F451" t="n">
         <v>2133.805</v>
       </c>
+      <c r="G451" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -10417,6 +11772,9 @@
       <c r="F452" t="n">
         <v>2134.629</v>
       </c>
+      <c r="G452" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -10439,6 +11797,9 @@
       <c r="F453" t="n">
         <v>2138.807</v>
       </c>
+      <c r="G453" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -10464,6 +11825,9 @@
       <c r="F454" t="n">
         <v>2146.56</v>
       </c>
+      <c r="G454" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -10486,6 +11850,9 @@
       <c r="F455" t="n">
         <v>2152.559000000001</v>
       </c>
+      <c r="G455" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
@@ -10508,6 +11875,9 @@
       <c r="F456" t="n">
         <v>2157.187</v>
       </c>
+      <c r="G456" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -10533,6 +11903,9 @@
       <c r="F457" t="n">
         <v>2159.527</v>
       </c>
+      <c r="G457" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -10555,6 +11928,9 @@
       <c r="F458" t="n">
         <v>2160.505</v>
       </c>
+      <c r="G458" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -10577,6 +11953,9 @@
       <c r="F459" t="n">
         <v>2176.444</v>
       </c>
+      <c r="G459" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
@@ -10599,6 +11978,9 @@
       <c r="F460" t="n">
         <v>2186.021</v>
       </c>
+      <c r="G460" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -10621,6 +12003,9 @@
       <c r="F461" t="n">
         <v>2187.87</v>
       </c>
+      <c r="G461" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -10643,6 +12028,9 @@
       <c r="F462" t="n">
         <v>2189.328</v>
       </c>
+      <c r="G462" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -10665,6 +12053,9 @@
       <c r="F463" t="n">
         <v>2198.081</v>
       </c>
+      <c r="G463" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -10687,6 +12078,9 @@
       <c r="F464" t="n">
         <v>2202.42</v>
       </c>
+      <c r="G464" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -10709,6 +12103,9 @@
       <c r="F465" t="n">
         <v>2205.855</v>
       </c>
+      <c r="G465" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
@@ -10731,6 +12128,9 @@
       <c r="F466" t="n">
         <v>2208.256</v>
       </c>
+      <c r="G466" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -10753,6 +12153,9 @@
       <c r="F467" t="n">
         <v>2223.077</v>
       </c>
+      <c r="G467" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
@@ -10775,6 +12178,9 @@
       <c r="F468" t="n">
         <v>2224.425</v>
       </c>
+      <c r="G468" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -10797,6 +12203,9 @@
       <c r="F469" t="n">
         <v>2225.207</v>
       </c>
+      <c r="G469" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -10819,6 +12228,9 @@
       <c r="F470" t="n">
         <v>2230.199</v>
       </c>
+      <c r="G470" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
@@ -10844,6 +12256,9 @@
       <c r="F471" t="n">
         <v>2241.266000000001</v>
       </c>
+      <c r="G471" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
@@ -10866,6 +12281,9 @@
       <c r="F472" t="n">
         <v>2244.913</v>
       </c>
+      <c r="G472" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
@@ -10888,6 +12306,9 @@
       <c r="F473" t="n">
         <v>2250.811</v>
       </c>
+      <c r="G473" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -10910,6 +12331,9 @@
       <c r="F474" t="n">
         <v>2253.207</v>
       </c>
+      <c r="G474" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
@@ -10932,6 +12356,9 @@
       <c r="F475" t="n">
         <v>2268.182000000001</v>
       </c>
+      <c r="G475" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -10954,6 +12381,9 @@
       <c r="F476" t="n">
         <v>2268.439</v>
       </c>
+      <c r="G476" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -10976,6 +12406,9 @@
       <c r="F477" t="n">
         <v>2275.785</v>
       </c>
+      <c r="G477" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -10998,6 +12431,9 @@
       <c r="F478" t="n">
         <v>2279.519</v>
       </c>
+      <c r="G478" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -11020,6 +12456,9 @@
       <c r="F479" t="n">
         <v>2282.009999999999</v>
       </c>
+      <c r="G479" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -11042,6 +12481,9 @@
       <c r="F480" t="n">
         <v>2287.112</v>
       </c>
+      <c r="G480" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
@@ -11064,6 +12506,9 @@
       <c r="F481" t="n">
         <v>2292.827</v>
       </c>
+      <c r="G481" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
@@ -11086,6 +12531,9 @@
       <c r="F482" t="n">
         <v>2295.792</v>
       </c>
+      <c r="G482" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -11108,6 +12556,9 @@
       <c r="F483" t="n">
         <v>2298.45</v>
       </c>
+      <c r="G483" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
@@ -11130,6 +12581,9 @@
       <c r="F484" t="n">
         <v>2314.253</v>
       </c>
+      <c r="G484" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
@@ -11152,6 +12606,9 @@
       <c r="F485" t="n">
         <v>2315.471</v>
       </c>
+      <c r="G485" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
@@ -11174,6 +12631,9 @@
       <c r="F486" t="n">
         <v>2316.166</v>
       </c>
+      <c r="G486" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
@@ -11196,6 +12656,9 @@
       <c r="F487" t="n">
         <v>2320.77</v>
       </c>
+      <c r="G487" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
@@ -11218,6 +12681,9 @@
       <c r="F488" t="n">
         <v>2332.511</v>
       </c>
+      <c r="G488" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
@@ -11240,6 +12706,9 @@
       <c r="F489" t="n">
         <v>2338.763</v>
       </c>
+      <c r="G489" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
@@ -11262,6 +12731,9 @@
       <c r="F490" t="n">
         <v>2346.645</v>
       </c>
+      <c r="G490" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
@@ -11284,6 +12756,9 @@
       <c r="F491" t="n">
         <v>2347.491</v>
       </c>
+      <c r="G491" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
@@ -11306,6 +12781,9 @@
       <c r="F492" t="n">
         <v>2359.413</v>
       </c>
+      <c r="G492" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
@@ -11328,6 +12806,9 @@
       <c r="F493" t="n">
         <v>2361.734000000001</v>
       </c>
+      <c r="G493" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -11350,6 +12831,9 @@
       <c r="F494" t="n">
         <v>2365.554</v>
       </c>
+      <c r="G494" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
@@ -11372,6 +12856,9 @@
       <c r="F495" t="n">
         <v>2370.427</v>
       </c>
+      <c r="G495" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
@@ -11394,6 +12881,9 @@
       <c r="F496" t="n">
         <v>2372.553999999999</v>
       </c>
+      <c r="G496" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
@@ -11416,6 +12906,9 @@
       <c r="F497" t="n">
         <v>2376.161</v>
       </c>
+      <c r="G497" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
@@ -11438,6 +12931,9 @@
       <c r="F498" t="n">
         <v>2382.293</v>
       </c>
+      <c r="G498" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
@@ -11460,6 +12956,9 @@
       <c r="F499" t="n">
         <v>2385.663</v>
       </c>
+      <c r="G499" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
@@ -11482,6 +12981,9 @@
       <c r="F500" t="n">
         <v>2388.354</v>
       </c>
+      <c r="G500" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
@@ -11504,6 +13006,9 @@
       <c r="F501" t="n">
         <v>2405.167</v>
       </c>
+      <c r="G501" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
@@ -11526,6 +13031,9 @@
       <c r="F502" t="n">
         <v>2406.243</v>
       </c>
+      <c r="G502" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
@@ -11548,6 +13056,9 @@
       <c r="F503" t="n">
         <v>2407.074</v>
       </c>
+      <c r="G503" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
@@ -11570,6 +13081,9 @@
       <c r="F504" t="n">
         <v>2411.944</v>
       </c>
+      <c r="G504" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
@@ -11592,6 +13106,9 @@
       <c r="F505" t="n">
         <v>2420.557</v>
       </c>
+      <c r="G505" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
@@ -11614,6 +13131,9 @@
       <c r="F506" t="n">
         <v>2426.597</v>
       </c>
+      <c r="G506" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
@@ -11636,6 +13156,9 @@
       <c r="F507" t="n">
         <v>2433.697</v>
       </c>
+      <c r="G507" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
@@ -11658,6 +13181,9 @@
       <c r="F508" t="n">
         <v>2441.617000000001</v>
       </c>
+      <c r="G508" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
@@ -11680,6 +13206,9 @@
       <c r="F509" t="n">
         <v>2449.725000000001</v>
       </c>
+      <c r="G509" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
@@ -11702,6 +13231,9 @@
       <c r="F510" t="n">
         <v>2451.677</v>
       </c>
+      <c r="G510" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
@@ -11724,6 +13256,9 @@
       <c r="F511" t="n">
         <v>2455.125</v>
       </c>
+      <c r="G511" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
@@ -11746,6 +13281,9 @@
       <c r="F512" t="n">
         <v>2464.329</v>
       </c>
+      <c r="G512" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
@@ -11768,6 +13306,9 @@
       <c r="F513" t="n">
         <v>2465.518999999999</v>
       </c>
+      <c r="G513" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
@@ -11790,6 +13331,9 @@
       <c r="F514" t="n">
         <v>2465.753999999999</v>
       </c>
+      <c r="G514" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
@@ -11812,6 +13356,9 @@
       <c r="F515" t="n">
         <v>2475.383</v>
       </c>
+      <c r="G515" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
@@ -11834,6 +13381,9 @@
       <c r="F516" t="n">
         <v>2478.429</v>
       </c>
+      <c r="G516" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
@@ -11856,6 +13406,9 @@
       <c r="F517" t="n">
         <v>2495.842000000001</v>
       </c>
+      <c r="G517" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
@@ -11878,6 +13431,9 @@
       <c r="F518" t="n">
         <v>2496.996</v>
       </c>
+      <c r="G518" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
@@ -11900,6 +13456,9 @@
       <c r="F519" t="n">
         <v>2499.349999999999</v>
       </c>
+      <c r="G519" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
@@ -11922,6 +13481,9 @@
       <c r="F520" t="n">
         <v>2503.156</v>
       </c>
+      <c r="G520" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
@@ -11944,6 +13506,9 @@
       <c r="F521" t="n">
         <v>2508.283</v>
       </c>
+      <c r="G521" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
@@ -11966,6 +13531,9 @@
       <c r="F522" t="n">
         <v>2514.443</v>
       </c>
+      <c r="G522" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
@@ -11988,6 +13556,9 @@
       <c r="F523" t="n">
         <v>2520.97</v>
       </c>
+      <c r="G523" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
@@ -12010,6 +13581,9 @@
       <c r="F524" t="n">
         <v>2529.065000000001</v>
       </c>
+      <c r="G524" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
@@ -12032,6 +13606,9 @@
       <c r="F525" t="n">
         <v>2537.484000000001</v>
       </c>
+      <c r="G525" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
@@ -12054,6 +13631,9 @@
       <c r="F526" t="n">
         <v>2542.986</v>
       </c>
+      <c r="G526" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
@@ -12076,6 +13656,9 @@
       <c r="F527" t="n">
         <v>2544.885</v>
       </c>
+      <c r="G527" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
@@ -12098,6 +13681,9 @@
       <c r="F528" t="n">
         <v>2555.654</v>
       </c>
+      <c r="G528" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
@@ -12120,6 +13706,9 @@
       <c r="F529" t="n">
         <v>2556.914</v>
       </c>
+      <c r="G529" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
@@ -12142,6 +13731,9 @@
       <c r="F530" t="n">
         <v>2557.891999999999</v>
       </c>
+      <c r="G530" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
@@ -12164,6 +13756,9 @@
       <c r="F531" t="n">
         <v>2565.108</v>
       </c>
+      <c r="G531" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
@@ -12186,6 +13781,9 @@
       <c r="F532" t="n">
         <v>2568.155</v>
       </c>
+      <c r="G532" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
@@ -12208,6 +13806,9 @@
       <c r="F533" t="n">
         <v>2586.930000000001</v>
       </c>
+      <c r="G533" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
@@ -12230,6 +13831,9 @@
       <c r="F534" t="n">
         <v>2588.001</v>
       </c>
+      <c r="G534" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
@@ -12252,6 +13856,9 @@
       <c r="F535" t="n">
         <v>2591.105999999999</v>
       </c>
+      <c r="G535" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
@@ -12277,6 +13884,9 @@
       <c r="F536" t="n">
         <v>2594.589</v>
       </c>
+      <c r="G536" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
@@ -12299,6 +13909,9 @@
       <c r="F537" t="n">
         <v>2596.292</v>
       </c>
+      <c r="G537" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
@@ -12321,6 +13934,9 @@
       <c r="F538" t="n">
         <v>2602.256</v>
       </c>
+      <c r="G538" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
@@ -12343,6 +13959,9 @@
       <c r="F539" t="n">
         <v>2608.705</v>
       </c>
+      <c r="G539" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
@@ -12365,6 +13984,9 @@
       <c r="F540" t="n">
         <v>2617.119000000001</v>
       </c>
+      <c r="G540" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
@@ -12387,6 +14009,9 @@
       <c r="F541" t="n">
         <v>2625.402000000001</v>
       </c>
+      <c r="G541" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
@@ -12409,6 +14034,9 @@
       <c r="F542" t="n">
         <v>2634.8</v>
       </c>
+      <c r="G542" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
@@ -12431,6 +14059,9 @@
       <c r="F543" t="n">
         <v>2636.211</v>
       </c>
+      <c r="G543" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
@@ -12453,6 +14084,9 @@
       <c r="F544" t="n">
         <v>2644.846</v>
       </c>
+      <c r="G544" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
@@ -12475,6 +14109,9 @@
       <c r="F545" t="n">
         <v>2647.74</v>
       </c>
+      <c r="G545" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
@@ -12497,6 +14134,9 @@
       <c r="F546" t="n">
         <v>2649.344999999999</v>
       </c>
+      <c r="G546" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
@@ -12519,6 +14159,9 @@
       <c r="F547" t="n">
         <v>2655.394</v>
       </c>
+      <c r="G547" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
@@ -12541,6 +14184,9 @@
       <c r="F548" t="n">
         <v>2658.246</v>
       </c>
+      <c r="G548" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
@@ -12563,6 +14209,9 @@
       <c r="F549" t="n">
         <v>2678.232000000001</v>
       </c>
+      <c r="G549" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
@@ -12585,6 +14234,9 @@
       <c r="F550" t="n">
         <v>2679.327</v>
       </c>
+      <c r="G550" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
@@ -12610,6 +14262,9 @@
       <c r="F551" t="n">
         <v>2682.397999999999</v>
       </c>
+      <c r="G551" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
@@ -12632,6 +14287,9 @@
       <c r="F552" t="n">
         <v>2684.68</v>
       </c>
+      <c r="G552" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
@@ -12654,6 +14312,9 @@
       <c r="F553" t="n">
         <v>2690.788</v>
       </c>
+      <c r="G553" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
@@ -12676,6 +14337,9 @@
       <c r="F554" t="n">
         <v>2696.201</v>
       </c>
+      <c r="G554" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
@@ -12698,6 +14362,9 @@
       <c r="F555" t="n">
         <v>2704.678000000001</v>
       </c>
+      <c r="G555" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
@@ -12720,6 +14387,9 @@
       <c r="F556" t="n">
         <v>2705.344</v>
       </c>
+      <c r="G556" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
@@ -12742,6 +14412,9 @@
       <c r="F557" t="n">
         <v>2713.107000000001</v>
       </c>
+      <c r="G557" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
@@ -12764,6 +14437,9 @@
       <c r="F558" t="n">
         <v>2725.636</v>
       </c>
+      <c r="G558" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
@@ -12786,6 +14462,9 @@
       <c r="F559" t="n">
         <v>2728.137</v>
       </c>
+      <c r="G559" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
@@ -12808,6 +14487,9 @@
       <c r="F560" t="n">
         <v>2733.820999999999</v>
       </c>
+      <c r="G560" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
@@ -12830,6 +14512,9 @@
       <c r="F561" t="n">
         <v>2738.549</v>
       </c>
+      <c r="G561" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
@@ -12852,6 +14537,9 @@
       <c r="F562" t="n">
         <v>2740.415999999999</v>
       </c>
+      <c r="G562" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
@@ -12874,6 +14562,9 @@
       <c r="F563" t="n">
         <v>2745.31</v>
       </c>
+      <c r="G563" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
@@ -12896,6 +14587,9 @@
       <c r="F564" t="n">
         <v>2748.143</v>
       </c>
+      <c r="G564" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
@@ -12918,6 +14612,9 @@
       <c r="F565" t="n">
         <v>2769.342000000001</v>
       </c>
+      <c r="G565" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
@@ -12940,6 +14637,9 @@
       <c r="F566" t="n">
         <v>2770.156</v>
       </c>
+      <c r="G566" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
@@ -12962,6 +14662,9 @@
       <c r="F567" t="n">
         <v>2772.799</v>
       </c>
+      <c r="G567" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
@@ -12984,6 +14687,9 @@
       <c r="F568" t="n">
         <v>2779.055</v>
       </c>
+      <c r="G568" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
@@ -13006,6 +14712,9 @@
       <c r="F569" t="n">
         <v>2784.376000000001</v>
       </c>
+      <c r="G569" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
@@ -13028,6 +14737,9 @@
       <c r="F570" t="n">
         <v>2792.735000000001</v>
       </c>
+      <c r="G570" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
@@ -13050,6 +14762,9 @@
       <c r="F571" t="n">
         <v>2793.213999999999</v>
       </c>
+      <c r="G571" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
@@ -13072,6 +14787,9 @@
       <c r="F572" t="n">
         <v>2801.203000000001</v>
       </c>
+      <c r="G572" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
@@ -13094,6 +14812,9 @@
       <c r="F573" t="n">
         <v>2801.864</v>
       </c>
+      <c r="G573" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
@@ -13116,6 +14837,9 @@
       <c r="F574" t="n">
         <v>2815.259</v>
       </c>
+      <c r="G574" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
@@ -13138,6 +14862,9 @@
       <c r="F575" t="n">
         <v>2818.774</v>
       </c>
+      <c r="G575" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
@@ -13160,6 +14887,9 @@
       <c r="F576" t="n">
         <v>2822.712</v>
       </c>
+      <c r="G576" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
@@ -13182,6 +14912,9 @@
       <c r="F577" t="n">
         <v>2830.784000000001</v>
       </c>
+      <c r="G577" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
@@ -13204,6 +14937,9 @@
       <c r="F578" t="n">
         <v>2831.895999999999</v>
       </c>
+      <c r="G578" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
@@ -13226,6 +14962,9 @@
       <c r="F579" t="n">
         <v>2834.977</v>
       </c>
+      <c r="G579" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
@@ -13248,6 +14987,9 @@
       <c r="F580" t="n">
         <v>2837.67</v>
       </c>
+      <c r="G580" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
@@ -13270,6 +15012,9 @@
       <c r="F581" t="n">
         <v>2860.593000000001</v>
       </c>
+      <c r="G581" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
@@ -13292,6 +15037,9 @@
       <c r="F582" t="n">
         <v>2861.025000000001</v>
       </c>
+      <c r="G582" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
@@ -13314,6 +15062,9 @@
       <c r="F583" t="n">
         <v>2862.179000000001</v>
       </c>
+      <c r="G583" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
@@ -13336,6 +15087,9 @@
       <c r="F584" t="n">
         <v>2866.766</v>
       </c>
+      <c r="G584" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
@@ -13358,6 +15112,9 @@
       <c r="F585" t="n">
         <v>2871.829000000001</v>
       </c>
+      <c r="G585" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
@@ -13380,6 +15137,9 @@
       <c r="F586" t="n">
         <v>2880.634</v>
       </c>
+      <c r="G586" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
@@ -13402,6 +15162,9 @@
       <c r="F587" t="n">
         <v>2888.234999999999</v>
       </c>
+      <c r="G587" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
@@ -13424,6 +15187,9 @@
       <c r="F588" t="n">
         <v>2889.068000000001</v>
       </c>
+      <c r="G588" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
@@ -13446,6 +15212,9 @@
       <c r="F589" t="n">
         <v>2891.535</v>
       </c>
+      <c r="G589" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
@@ -13468,6 +15237,9 @@
       <c r="F590" t="n">
         <v>2905.132</v>
       </c>
+      <c r="G590" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
@@ -13490,6 +15262,9 @@
       <c r="F591" t="n">
         <v>2909.46</v>
       </c>
+      <c r="G591" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
@@ -13512,6 +15287,9 @@
       <c r="F592" t="n">
         <v>2911.690999999999</v>
       </c>
+      <c r="G592" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
@@ -13534,6 +15312,9 @@
       <c r="F593" t="n">
         <v>2921.675000000001</v>
       </c>
+      <c r="G593" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
@@ -13556,6 +15337,9 @@
       <c r="F594" t="n">
         <v>2922.796999999999</v>
       </c>
+      <c r="G594" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
@@ -13578,6 +15362,9 @@
       <c r="F595" t="n">
         <v>2924.703</v>
       </c>
+      <c r="G595" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
@@ -13600,6 +15387,9 @@
       <c r="F596" t="n">
         <v>2927.251999999999</v>
       </c>
+      <c r="G596" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
@@ -13622,6 +15412,9 @@
       <c r="F597" t="n">
         <v>2948.726000000001</v>
       </c>
+      <c r="G597" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
@@ -13644,6 +15437,9 @@
       <c r="F598" t="n">
         <v>2952.045000000001</v>
       </c>
+      <c r="G598" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
@@ -13666,6 +15462,9 @@
       <c r="F599" t="n">
         <v>2952.784000000001</v>
       </c>
+      <c r="G599" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
@@ -13688,6 +15487,9 @@
       <c r="F600" t="n">
         <v>2954.313999999999</v>
       </c>
+      <c r="G600" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
@@ -13710,6 +15512,9 @@
       <c r="F601" t="n">
         <v>2959.261</v>
       </c>
+      <c r="G601" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
@@ -13732,6 +15537,9 @@
       <c r="F602" t="n">
         <v>2968.585</v>
       </c>
+      <c r="G602" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
@@ -13754,6 +15562,9 @@
       <c r="F603" t="n">
         <v>2976.754000000001</v>
       </c>
+      <c r="G603" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
@@ -13776,6 +15587,9 @@
       <c r="F604" t="n">
         <v>2978.606999999999</v>
       </c>
+      <c r="G604" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
@@ -13798,6 +15612,9 @@
       <c r="F605" t="n">
         <v>2981.685</v>
       </c>
+      <c r="G605" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
@@ -13823,6 +15640,9 @@
       <c r="F606" t="n">
         <v>2995.086</v>
       </c>
+      <c r="G606" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
@@ -13845,6 +15665,9 @@
       <c r="F607" t="n">
         <v>2999.891000000001</v>
       </c>
+      <c r="G607" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
@@ -13867,6 +15690,9 @@
       <c r="F608" t="n">
         <v>3000.590999999999</v>
       </c>
+      <c r="G608" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
@@ -13889,6 +15715,9 @@
       <c r="F609" t="n">
         <v>3012.775000000001</v>
       </c>
+      <c r="G609" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
@@ -13911,6 +15740,9 @@
       <c r="F610" t="n">
         <v>3014.252999999999</v>
       </c>
+      <c r="G610" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
@@ -13933,6 +15765,9 @@
       <c r="F611" t="n">
         <v>3015.041</v>
       </c>
+      <c r="G611" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
@@ -13955,6 +15790,9 @@
       <c r="F612" t="n">
         <v>3017.052999999999</v>
       </c>
+      <c r="G612" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
@@ -13977,6 +15815,9 @@
       <c r="F613" t="n">
         <v>3036.354000000001</v>
       </c>
+      <c r="G613" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
@@ -13999,6 +15840,9 @@
       <c r="F614" t="n">
         <v>3043.288</v>
       </c>
+      <c r="G614" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
@@ -14021,6 +15865,9 @@
       <c r="F615" t="n">
         <v>3044.111000000001</v>
       </c>
+      <c r="G615" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
@@ -14043,6 +15890,9 @@
       <c r="F616" t="n">
         <v>3044.833000000001</v>
       </c>
+      <c r="G616" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
@@ -14065,6 +15915,9 @@
       <c r="F617" t="n">
         <v>3046.774</v>
       </c>
+      <c r="G617" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
@@ -14087,6 +15940,9 @@
       <c r="F618" t="n">
         <v>3056.858000000001</v>
       </c>
+      <c r="G618" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
@@ -14109,6 +15965,9 @@
       <c r="F619" t="n">
         <v>3064.503000000001</v>
       </c>
+      <c r="G619" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
@@ -14131,6 +15990,9 @@
       <c r="F620" t="n">
         <v>3067.459999999999</v>
       </c>
+      <c r="G620" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
@@ -14153,6 +16015,9 @@
       <c r="F621" t="n">
         <v>3071.844</v>
       </c>
+      <c r="G621" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
@@ -14175,6 +16040,9 @@
       <c r="F622" t="n">
         <v>3089.786</v>
       </c>
+      <c r="G622" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
@@ -14197,6 +16065,9 @@
       <c r="F623" t="n">
         <v>3091.918000000001</v>
       </c>
+      <c r="G623" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
@@ -14219,6 +16090,9 @@
       <c r="F624" t="n">
         <v>3104.382000000001</v>
       </c>
+      <c r="G624" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
@@ -14241,6 +16115,9 @@
       <c r="F625" t="n">
         <v>3104.784</v>
       </c>
+      <c r="G625" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
@@ -14263,6 +16140,9 @@
       <c r="F626" t="n">
         <v>3106.518</v>
       </c>
+      <c r="G626" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
@@ -14285,6 +16165,9 @@
       <c r="F627" t="n">
         <v>3107.049</v>
       </c>
+      <c r="G627" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
@@ -14307,6 +16190,9 @@
       <c r="F628" t="n">
         <v>3108.748999999999</v>
       </c>
+      <c r="G628" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
@@ -14329,6 +16215,9 @@
       <c r="F629" t="n">
         <v>3123.837000000001</v>
       </c>
+      <c r="G629" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
@@ -14351,6 +16240,9 @@
       <c r="F630" t="n">
         <v>3130.723</v>
       </c>
+      <c r="G630" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
@@ -14373,6 +16265,9 @@
       <c r="F631" t="n">
         <v>3134.749000000001</v>
       </c>
+      <c r="G631" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
@@ -14395,6 +16290,9 @@
       <c r="F632" t="n">
         <v>3135.306</v>
       </c>
+      <c r="G632" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
@@ -14417,6 +16315,9 @@
       <c r="F633" t="n">
         <v>3136.724000000001</v>
       </c>
+      <c r="G633" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
@@ -14439,6 +16340,9 @@
       <c r="F634" t="n">
         <v>3145.156000000001</v>
       </c>
+      <c r="G634" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
@@ -14461,6 +16365,9 @@
       <c r="F635" t="n">
         <v>3151.676</v>
       </c>
+      <c r="G635" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
@@ -14483,6 +16390,9 @@
       <c r="F636" t="n">
         <v>3156.120999999999</v>
       </c>
+      <c r="G636" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
@@ -14505,6 +16415,9 @@
       <c r="F637" t="n">
         <v>3161.467</v>
       </c>
+      <c r="G637" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
@@ -14527,6 +16440,9 @@
       <c r="F638" t="n">
         <v>3178.483</v>
       </c>
+      <c r="G638" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
@@ -14549,6 +16465,9 @@
       <c r="F639" t="n">
         <v>3182.162000000001</v>
       </c>
+      <c r="G639" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
@@ -14571,6 +16490,9 @@
       <c r="F640" t="n">
         <v>3193.956</v>
       </c>
+      <c r="G640" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
@@ -14593,6 +16515,9 @@
       <c r="F641" t="n">
         <v>3196.755</v>
       </c>
+      <c r="G641" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
@@ -14615,6 +16540,9 @@
       <c r="F642" t="n">
         <v>3197.934000000001</v>
       </c>
+      <c r="G642" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
@@ -14637,6 +16565,9 @@
       <c r="F643" t="n">
         <v>3199.584999999999</v>
       </c>
+      <c r="G643" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
@@ -14659,6 +16590,9 @@
       <c r="F644" t="n">
         <v>3202.167</v>
       </c>
+      <c r="G644" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
@@ -14681,6 +16615,9 @@
       <c r="F645" t="n">
         <v>3211.184000000001</v>
       </c>
+      <c r="G645" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
@@ -14703,6 +16640,9 @@
       <c r="F646" t="n">
         <v>3219.076999999999</v>
       </c>
+      <c r="G646" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
@@ -14725,6 +16665,9 @@
       <c r="F647" t="n">
         <v>3222.445000000001</v>
       </c>
+      <c r="G647" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
@@ -14747,6 +16690,9 @@
       <c r="F648" t="n">
         <v>3226.139000000001</v>
       </c>
+      <c r="G648" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
@@ -14769,6 +16715,9 @@
       <c r="F649" t="n">
         <v>3227.21</v>
       </c>
+      <c r="G649" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
@@ -14791,6 +16740,9 @@
       <c r="F650" t="n">
         <v>3233.134000000001</v>
       </c>
+      <c r="G650" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
@@ -14813,6 +16765,9 @@
       <c r="F651" t="n">
         <v>3239.203</v>
       </c>
+      <c r="G651" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
@@ -14835,6 +16790,9 @@
       <c r="F652" t="n">
         <v>3245.235999999999</v>
       </c>
+      <c r="G652" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
@@ -14857,6 +16815,9 @@
       <c r="F653" t="n">
         <v>3251.191</v>
       </c>
+      <c r="G653" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
@@ -14879,6 +16840,9 @@
       <c r="F654" t="n">
         <v>3267.42</v>
       </c>
+      <c r="G654" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
@@ -14901,6 +16865,9 @@
       <c r="F655" t="n">
         <v>3272.372000000001</v>
       </c>
+      <c r="G655" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
@@ -14923,6 +16890,9 @@
       <c r="F656" t="n">
         <v>3283.562</v>
       </c>
+      <c r="G656" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
@@ -14945,6 +16915,9 @@
       <c r="F657" t="n">
         <v>3286.126</v>
       </c>
+      <c r="G657" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
@@ -14967,6 +16940,9 @@
       <c r="F658" t="n">
         <v>3288.097000000001</v>
       </c>
+      <c r="G658" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
@@ -14989,6 +16965,9 @@
       <c r="F659" t="n">
         <v>3291.189</v>
       </c>
+      <c r="G659" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
@@ -15011,6 +16990,9 @@
       <c r="F660" t="n">
         <v>3292.649999999999</v>
       </c>
+      <c r="G660" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
@@ -15033,6 +17015,9 @@
       <c r="F661" t="n">
         <v>3298.804000000001</v>
       </c>
+      <c r="G661" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
@@ -15055,6 +17040,9 @@
       <c r="F662" t="n">
         <v>3306.788999999999</v>
       </c>
+      <c r="G662" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
@@ -15077,6 +17065,9 @@
       <c r="F663" t="n">
         <v>3309.73</v>
       </c>
+      <c r="G663" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
@@ -15099,6 +17090,9 @@
       <c r="F664" t="n">
         <v>3316.803000000001</v>
       </c>
+      <c r="G664" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
@@ -15121,6 +17115,9 @@
       <c r="F665" t="n">
         <v>3317.648000000001</v>
       </c>
+      <c r="G665" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
@@ -15143,6 +17140,9 @@
       <c r="F666" t="n">
         <v>3320.984000000001</v>
       </c>
+      <c r="G666" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
@@ -15165,6 +17165,9 @@
       <c r="F667" t="n">
         <v>3326.705</v>
       </c>
+      <c r="G667" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
@@ -15187,6 +17190,9 @@
       <c r="F668" t="n">
         <v>3334.577999999999</v>
       </c>
+      <c r="G668" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
@@ -15209,6 +17215,9 @@
       <c r="F669" t="n">
         <v>3340.718</v>
       </c>
+      <c r="G669" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
@@ -15231,6 +17240,9 @@
       <c r="F670" t="n">
         <v>3356.171</v>
       </c>
+      <c r="G670" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
@@ -15253,6 +17265,9 @@
       <c r="F671" t="n">
         <v>3362.688000000001</v>
       </c>
+      <c r="G671" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
@@ -15275,6 +17290,9 @@
       <c r="F672" t="n">
         <v>3372.996</v>
       </c>
+      <c r="G672" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
@@ -15297,6 +17315,9 @@
       <c r="F673" t="n">
         <v>3375.534</v>
       </c>
+      <c r="G673" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
@@ -15319,6 +17340,9 @@
       <c r="F674" t="n">
         <v>3378.743000000001</v>
       </c>
+      <c r="G674" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
@@ -15341,6 +17365,9 @@
       <c r="F675" t="n">
         <v>3379.842</v>
       </c>
+      <c r="G675" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
@@ -15363,6 +17390,9 @@
       <c r="F676" t="n">
         <v>3384.120999999999</v>
       </c>
+      <c r="G676" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
@@ -15385,6 +17415,9 @@
       <c r="F677" t="n">
         <v>3386.294000000001</v>
       </c>
+      <c r="G677" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
@@ -15407,6 +17440,9 @@
       <c r="F678" t="n">
         <v>3394.346999999999</v>
       </c>
+      <c r="G678" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
@@ -15429,6 +17465,9 @@
       <c r="F679" t="n">
         <v>3397.167</v>
       </c>
+      <c r="G679" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
@@ -15451,6 +17490,9 @@
       <c r="F680" t="n">
         <v>3407.398000000001</v>
       </c>
+      <c r="G680" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
@@ -15473,6 +17515,9 @@
       <c r="F681" t="n">
         <v>3408.223</v>
       </c>
+      <c r="G681" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
@@ -15495,6 +17540,9 @@
       <c r="F682" t="n">
         <v>3409.140000000001</v>
       </c>
+      <c r="G682" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
@@ -15517,6 +17565,9 @@
       <c r="F683" t="n">
         <v>3414.088</v>
       </c>
+      <c r="G683" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
@@ -15539,6 +17590,9 @@
       <c r="F684" t="n">
         <v>3424.236999999999</v>
       </c>
+      <c r="G684" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
@@ -15561,6 +17615,9 @@
       <c r="F685" t="n">
         <v>3430.365</v>
       </c>
+      <c r="G685" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
@@ -15583,6 +17640,9 @@
       <c r="F686" t="n">
         <v>3444.989</v>
       </c>
+      <c r="G686" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
@@ -15605,6 +17665,9 @@
       <c r="F687" t="n">
         <v>3453.356000000001</v>
       </c>
+      <c r="G687" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
@@ -15627,6 +17690,9 @@
       <c r="F688" t="n">
         <v>3462.192</v>
       </c>
+      <c r="G688" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
@@ -15649,6 +17715,9 @@
       <c r="F689" t="n">
         <v>3464.579999999999</v>
       </c>
+      <c r="G689" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
@@ -15671,6 +17740,9 @@
       <c r="F690" t="n">
         <v>3468.155999999999</v>
       </c>
+      <c r="G690" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
@@ -15693,6 +17765,9 @@
       <c r="F691" t="n">
         <v>3471.212000000001</v>
       </c>
+      <c r="G691" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
@@ -15715,6 +17790,9 @@
       <c r="F692" t="n">
         <v>3473.880000000001</v>
       </c>
+      <c r="G692" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
@@ -15737,6 +17815,9 @@
       <c r="F693" t="n">
         <v>3477.013999999999</v>
       </c>
+      <c r="G693" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
@@ -15759,6 +17840,9 @@
       <c r="F694" t="n">
         <v>3481.964999999999</v>
       </c>
+      <c r="G694" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" s="1" t="n">
@@ -15781,6 +17865,9 @@
       <c r="F695" t="n">
         <v>3484.563000000001</v>
       </c>
+      <c r="G695" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
@@ -15803,6 +17890,9 @@
       <c r="F696" t="n">
         <v>3497.872000000001</v>
       </c>
+      <c r="G696" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" s="1" t="n">
@@ -15825,6 +17915,9 @@
       <c r="F697" t="n">
         <v>3499.043000000001</v>
       </c>
+      <c r="G697" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" s="1" t="n">
@@ -15847,6 +17940,9 @@
       <c r="F698" t="n">
         <v>3500.082</v>
       </c>
+      <c r="G698" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
@@ -15869,6 +17965,9 @@
       <c r="F699" t="n">
         <v>3501.491</v>
       </c>
+      <c r="G699" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
@@ -15891,6 +17990,9 @@
       <c r="F700" t="n">
         <v>3514.214999999999</v>
       </c>
+      <c r="G700" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
@@ -15913,6 +18015,9 @@
       <c r="F701" t="n">
         <v>3519.754</v>
       </c>
+      <c r="G701" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
@@ -15935,6 +18040,9 @@
       <c r="F702" t="n">
         <v>3533.979</v>
       </c>
+      <c r="G702" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
@@ -15957,6 +18065,9 @@
       <c r="F703" t="n">
         <v>3543.641000000001</v>
       </c>
+      <c r="G703" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
@@ -15979,6 +18090,9 @@
       <c r="F704" t="n">
         <v>3551.348</v>
       </c>
+      <c r="G704" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" s="1" t="n">
@@ -16001,6 +18115,9 @@
       <c r="F705" t="n">
         <v>3553.516</v>
       </c>
+      <c r="G705" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" s="1" t="n">
@@ -16023,6 +18140,9 @@
       <c r="F706" t="n">
         <v>3556.199</v>
       </c>
+      <c r="G706" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" s="1" t="n">
@@ -16045,6 +18165,9 @@
       <c r="F707" t="n">
         <v>3561.598</v>
       </c>
+      <c r="G707" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" s="1" t="n">
@@ -16067,6 +18190,9 @@
       <c r="F708" t="n">
         <v>3563.190000000001</v>
       </c>
+      <c r="G708" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" s="1" t="n">
@@ -16089,6 +18215,9 @@
       <c r="F709" t="n">
         <v>3567.623999999999</v>
       </c>
+      <c r="G709" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" s="1" t="n">
@@ -16111,6 +18240,9 @@
       <c r="F710" t="n">
         <v>3569.489999999999</v>
       </c>
+      <c r="G710" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" s="1" t="n">
@@ -16133,6 +18265,9 @@
       <c r="F711" t="n">
         <v>3572.274</v>
       </c>
+      <c r="G711" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="712">
       <c r="A712" s="1" t="n">
@@ -16155,6 +18290,9 @@
       <c r="F712" t="n">
         <v>3585.631000000001</v>
       </c>
+      <c r="G712" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" s="1" t="n">
@@ -16177,6 +18315,9 @@
       <c r="F713" t="n">
         <v>3589.889</v>
       </c>
+      <c r="G713" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" s="1" t="n">
@@ -16199,6 +18340,9 @@
       <c r="F714" t="n">
         <v>3590.703</v>
       </c>
+      <c r="G714" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" s="1" t="n">
@@ -16221,6 +18365,9 @@
       <c r="F715" t="n">
         <v>3591.821</v>
       </c>
+      <c r="G715" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="716">
       <c r="A716" s="1" t="n">
@@ -16243,6 +18390,9 @@
       <c r="F716" t="n">
         <v>3603.359999999999</v>
       </c>
+      <c r="G716" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" s="1" t="n">
@@ -16265,6 +18415,9 @@
       <c r="F717" t="n">
         <v>3609.233</v>
       </c>
+      <c r="G717" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" s="1" t="n">
@@ -16287,6 +18440,9 @@
       <c r="F718" t="n">
         <v>3622.902</v>
       </c>
+      <c r="G718" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" s="1" t="n">
@@ -16309,6 +18465,9 @@
       <c r="F719" t="n">
         <v>3633.473</v>
       </c>
+      <c r="G719" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" s="1" t="n">
@@ -16331,6 +18490,9 @@
       <c r="F720" t="n">
         <v>3640.319</v>
       </c>
+      <c r="G720" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" s="1" t="n">
@@ -16353,6 +18515,9 @@
       <c r="F721" t="n">
         <v>3642.363</v>
       </c>
+      <c r="G721" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="722">
       <c r="A722" s="1" t="n">
@@ -16375,6 +18540,9 @@
       <c r="F722" t="n">
         <v>3644.182</v>
       </c>
+      <c r="G722" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" s="1" t="n">
@@ -16397,6 +18565,9 @@
       <c r="F723" t="n">
         <v>3648.984</v>
       </c>
+      <c r="G723" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="724">
       <c r="A724" s="1" t="n">
@@ -16419,6 +18590,9 @@
       <c r="F724" t="n">
         <v>3653.175000000001</v>
       </c>
+      <c r="G724" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" s="1" t="n">
@@ -16441,6 +18615,9 @@
       <c r="F725" t="n">
         <v>3658.209999999999</v>
       </c>
+      <c r="G725" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="726">
       <c r="A726" s="1" t="n">
@@ -16463,6 +18640,9 @@
       <c r="F726" t="n">
         <v>3660.611</v>
       </c>
+      <c r="G726" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" s="1" t="n">
@@ -16485,6 +18665,9 @@
       <c r="F727" t="n">
         <v>3661.954999999999</v>
       </c>
+      <c r="G727" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" s="1" t="n">
@@ -16507,6 +18690,9 @@
       <c r="F728" t="n">
         <v>3673.040000000001</v>
       </c>
+      <c r="G728" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" s="1" t="n">
@@ -16529,6 +18715,9 @@
       <c r="F729" t="n">
         <v>3677.055</v>
       </c>
+      <c r="G729" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="730">
       <c r="A730" s="1" t="n">
@@ -16551,6 +18740,9 @@
       <c r="F730" t="n">
         <v>3681.191</v>
       </c>
+      <c r="G730" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="731">
       <c r="A731" s="1" t="n">
@@ -16573,6 +18765,9 @@
       <c r="F731" t="n">
         <v>3681.887</v>
       </c>
+      <c r="G731" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="732">
       <c r="A732" s="1" t="n">
@@ -16595,6 +18790,9 @@
       <c r="F732" t="n">
         <v>3692.368999999999</v>
       </c>
+      <c r="G732" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="733">
       <c r="A733" s="1" t="n">
@@ -16617,6 +18815,9 @@
       <c r="F733" t="n">
         <v>3712.617</v>
       </c>
+      <c r="G733" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" s="1" t="n">
@@ -16639,6 +18840,9 @@
       <c r="F734" t="n">
         <v>3723.434</v>
       </c>
+      <c r="G734" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="735">
       <c r="A735" s="1" t="n">
@@ -16661,6 +18865,9 @@
       <c r="F735" t="n">
         <v>3729.368</v>
       </c>
+      <c r="G735" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="736">
       <c r="A736" s="1" t="n">
@@ -16683,6 +18890,9 @@
       <c r="F736" t="n">
         <v>3732.257</v>
       </c>
+      <c r="G736" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" s="1" t="n">
@@ -16705,6 +18915,9 @@
       <c r="F737" t="n">
         <v>3733.493</v>
       </c>
+      <c r="G737" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" s="1" t="n">
@@ -16727,6 +18940,9 @@
       <c r="F738" t="n">
         <v>3736.432</v>
       </c>
+      <c r="G738" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" s="1" t="n">
@@ -16749,6 +18965,9 @@
       <c r="F739" t="n">
         <v>3743.388000000001</v>
       </c>
+      <c r="G739" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" s="1" t="n">
@@ -16771,6 +18990,9 @@
       <c r="F740" t="n">
         <v>3745.682999999999</v>
       </c>
+      <c r="G740" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" s="1" t="n">
@@ -16793,6 +19015,9 @@
       <c r="F741" t="n">
         <v>3748.136</v>
       </c>
+      <c r="G741" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" s="1" t="n">
@@ -16815,6 +19040,9 @@
       <c r="F742" t="n">
         <v>3753.965999999999</v>
       </c>
+      <c r="G742" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" s="1" t="n">
@@ -16837,6 +19065,9 @@
       <c r="F743" t="n">
         <v>3760.741000000001</v>
       </c>
+      <c r="G743" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" s="1" t="n">
@@ -16859,6 +19090,9 @@
       <c r="F744" t="n">
         <v>3764.1</v>
       </c>
+      <c r="G744" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="745">
       <c r="A745" s="1" t="n">
@@ -16881,6 +19115,9 @@
       <c r="F745" t="n">
         <v>3771.386</v>
       </c>
+      <c r="G745" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746" s="1" t="n">
@@ -16903,6 +19140,9 @@
       <c r="F746" t="n">
         <v>3772.256</v>
       </c>
+      <c r="G746" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" s="1" t="n">
@@ -16925,6 +19165,9 @@
       <c r="F747" t="n">
         <v>3781.121999999999</v>
       </c>
+      <c r="G747" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="748">
       <c r="A748" s="1" t="n">
@@ -16947,6 +19190,9 @@
       <c r="F748" t="n">
         <v>3801.269</v>
       </c>
+      <c r="G748" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" s="1" t="n">
@@ -16969,6 +19215,9 @@
       <c r="F749" t="n">
         <v>3813.445</v>
       </c>
+      <c r="G749" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="750">
       <c r="A750" s="1" t="n">
@@ -16991,6 +19240,9 @@
       <c r="F750" t="n">
         <v>3818.457</v>
       </c>
+      <c r="G750" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="751">
       <c r="A751" s="1" t="n">
@@ -17013,6 +19265,9 @@
       <c r="F751" t="n">
         <v>3820.405999999999</v>
       </c>
+      <c r="G751" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="752">
       <c r="A752" s="1" t="n">
@@ -17035,6 +19290,9 @@
       <c r="F752" t="n">
         <v>3822.502</v>
       </c>
+      <c r="G752" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" s="1" t="n">
@@ -17057,6 +19315,9 @@
       <c r="F753" t="n">
         <v>3824.251</v>
       </c>
+      <c r="G753" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="754">
       <c r="A754" s="1" t="n">
@@ -17079,6 +19340,9 @@
       <c r="F754" t="n">
         <v>3834.524999999999</v>
       </c>
+      <c r="G754" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" s="1" t="n">
@@ -17101,6 +19365,9 @@
       <c r="F755" t="n">
         <v>3836.185</v>
       </c>
+      <c r="G755" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" s="1" t="n">
@@ -17123,6 +19390,9 @@
       <c r="F756" t="n">
         <v>3836.240000000001</v>
       </c>
+      <c r="G756" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" s="1" t="n">
@@ -17145,6 +19415,9 @@
       <c r="F757" t="n">
         <v>3845.614</v>
       </c>
+      <c r="G757" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" s="1" t="n">
@@ -17167,6 +19440,9 @@
       <c r="F758" t="n">
         <v>3848.466000000001</v>
       </c>
+      <c r="G758" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" s="1" t="n">
@@ -17189,6 +19465,9 @@
       <c r="F759" t="n">
         <v>3851.064</v>
       </c>
+      <c r="G759" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" s="1" t="n">
@@ -17211,6 +19490,9 @@
       <c r="F760" t="n">
         <v>3861.954000000001</v>
       </c>
+      <c r="G760" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" s="1" t="n">
@@ -17233,6 +19515,9 @@
       <c r="F761" t="n">
         <v>3862.913</v>
       </c>
+      <c r="G761" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" s="1" t="n">
@@ -17255,6 +19540,9 @@
       <c r="F762" t="n">
         <v>3869.944999999999</v>
       </c>
+      <c r="G762" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" s="1" t="n">
@@ -17277,6 +19565,9 @@
       <c r="F763" t="n">
         <v>3889.671</v>
       </c>
+      <c r="G763" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="764">
       <c r="A764" s="1" t="n">
@@ -17299,6 +19590,9 @@
       <c r="F764" t="n">
         <v>3903.794</v>
       </c>
+      <c r="G764" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="765">
       <c r="A765" s="1" t="n">
@@ -17321,6 +19615,9 @@
       <c r="F765" t="n">
         <v>3907.353</v>
       </c>
+      <c r="G765" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="766">
       <c r="A766" s="1" t="n">
@@ -17343,6 +19640,9 @@
       <c r="F766" t="n">
         <v>3908.692999999999</v>
       </c>
+      <c r="G766" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="767">
       <c r="A767" s="1" t="n">
@@ -17365,6 +19665,9 @@
       <c r="F767" t="n">
         <v>3911.317</v>
       </c>
+      <c r="G767" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="768">
       <c r="A768" s="1" t="n">
@@ -17387,6 +19690,9 @@
       <c r="F768" t="n">
         <v>3912.205</v>
       </c>
+      <c r="G768" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="769">
       <c r="A769" s="1" t="n">
@@ -17409,6 +19715,9 @@
       <c r="F769" t="n">
         <v>3921.557999999999</v>
       </c>
+      <c r="G769" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="770">
       <c r="A770" s="1" t="n">
@@ -17431,6 +19740,9 @@
       <c r="F770" t="n">
         <v>3923.782000000001</v>
       </c>
+      <c r="G770" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="771">
       <c r="A771" s="1" t="n">
@@ -17453,6 +19765,9 @@
       <c r="F771" t="n">
         <v>3927.260000000001</v>
       </c>
+      <c r="G771" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="772">
       <c r="A772" s="1" t="n">
@@ -17475,6 +19790,9 @@
       <c r="F772" t="n">
         <v>3936.291000000001</v>
       </c>
+      <c r="G772" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="773">
       <c r="A773" s="1" t="n">
@@ -17497,6 +19815,9 @@
       <c r="F773" t="n">
         <v>3938.302</v>
       </c>
+      <c r="G773" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="774">
       <c r="A774" s="1" t="n">
@@ -17519,6 +19840,9 @@
       <c r="F774" t="n">
         <v>3938.695</v>
       </c>
+      <c r="G774" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="775">
       <c r="A775" s="1" t="n">
@@ -17541,6 +19865,9 @@
       <c r="F775" t="n">
         <v>3952.398000000001</v>
       </c>
+      <c r="G775" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="776">
       <c r="A776" s="1" t="n">
@@ -17563,6 +19890,9 @@
       <c r="F776" t="n">
         <v>3953.2</v>
       </c>
+      <c r="G776" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="777">
       <c r="A777" s="1" t="n">
@@ -17585,6 +19915,9 @@
       <c r="F777" t="n">
         <v>3958.748999999999</v>
       </c>
+      <c r="G777" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="778">
       <c r="A778" s="1" t="n">
@@ -17607,6 +19940,9 @@
       <c r="F778" t="n">
         <v>3978.439</v>
       </c>
+      <c r="G778" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="779">
       <c r="A779" s="1" t="n">
@@ -17629,6 +19965,9 @@
       <c r="F779" t="n">
         <v>3993.576</v>
       </c>
+      <c r="G779" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="780">
       <c r="A780" s="1" t="n">
@@ -17651,6 +19990,9 @@
       <c r="F780" t="n">
         <v>3996.23</v>
       </c>
+      <c r="G780" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="781">
       <c r="A781" s="1" t="n">
@@ -17673,6 +20015,9 @@
       <c r="F781" t="n">
         <v>3997.111999999999</v>
       </c>
+      <c r="G781" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="782">
       <c r="A782" s="1" t="n">
@@ -17695,6 +20040,9 @@
       <c r="F782" t="n">
         <v>3999.940000000001</v>
       </c>
+      <c r="G782" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="783">
       <c r="A783" s="1" t="n">
@@ -17717,6 +20065,9 @@
       <c r="F783" t="n">
         <v>4002.014</v>
       </c>
+      <c r="G783" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="784">
       <c r="A784" s="1" t="n">
@@ -17739,6 +20090,9 @@
       <c r="F784" t="n">
         <v>4008.708999999999</v>
       </c>
+      <c r="G784" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="785">
       <c r="A785" s="1" t="n">
@@ -17761,6 +20115,9 @@
       <c r="F785" t="n">
         <v>4010.905000000001</v>
       </c>
+      <c r="G785" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="786">
       <c r="A786" s="1" t="n">
@@ -17783,6 +20140,9 @@
       <c r="F786" t="n">
         <v>4017.325000000001</v>
       </c>
+      <c r="G786" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="787">
       <c r="A787" s="1" t="n">
@@ -17805,6 +20165,9 @@
       <c r="F787" t="n">
         <v>4023.774000000001</v>
       </c>
+      <c r="G787" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="788">
       <c r="A788" s="1" t="n">
@@ -17827,6 +20190,9 @@
       <c r="F788" t="n">
         <v>4025.747</v>
       </c>
+      <c r="G788" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="789">
       <c r="A789" s="1" t="n">
@@ -17852,6 +20218,9 @@
       <c r="F789" t="n">
         <v>4031.244</v>
       </c>
+      <c r="G789" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="790">
       <c r="A790" s="1" t="n">
@@ -17874,6 +20243,9 @@
       <c r="F790" t="n">
         <v>4042.833000000001</v>
       </c>
+      <c r="G790" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="791">
       <c r="A791" s="1" t="n">
@@ -17896,6 +20268,9 @@
       <c r="F791" t="n">
         <v>4043.743</v>
       </c>
+      <c r="G791" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="792">
       <c r="A792" s="1" t="n">
@@ -17918,6 +20293,9 @@
       <c r="F792" t="n">
         <v>4047.675999999999</v>
       </c>
+      <c r="G792" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="793">
       <c r="A793" s="1" t="n">
@@ -17940,6 +20318,9 @@
       <c r="F793" t="n">
         <v>4067.191</v>
       </c>
+      <c r="G793" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="794">
       <c r="A794" s="1" t="n">
@@ -17962,6 +20343,9 @@
       <c r="F794" t="n">
         <v>4083.165</v>
       </c>
+      <c r="G794" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="795">
       <c r="A795" s="1" t="n">
@@ -17984,6 +20368,9 @@
       <c r="F795" t="n">
         <v>4085.02</v>
       </c>
+      <c r="G795" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="796">
       <c r="A796" s="1" t="n">
@@ -18006,6 +20393,9 @@
       <c r="F796" t="n">
         <v>4085.842999999999</v>
       </c>
+      <c r="G796" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="797">
       <c r="A797" s="1" t="n">
@@ -18028,6 +20418,9 @@
       <c r="F797" t="n">
         <v>4087.635000000001</v>
       </c>
+      <c r="G797" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="798">
       <c r="A798" s="1" t="n">
@@ -18050,6 +20443,9 @@
       <c r="F798" t="n">
         <v>4090.675</v>
       </c>
+      <c r="G798" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="799">
       <c r="A799" s="1" t="n">
@@ -18072,6 +20468,9 @@
       <c r="F799" t="n">
         <v>4096.055999999999</v>
       </c>
+      <c r="G799" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="800">
       <c r="A800" s="1" t="n">
@@ -18094,6 +20493,9 @@
       <c r="F800" t="n">
         <v>4098.460000000001</v>
       </c>
+      <c r="G800" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="801">
       <c r="A801" s="1" t="n">
@@ -18116,6 +20518,9 @@
       <c r="F801" t="n">
         <v>4107.410000000001</v>
       </c>
+      <c r="G801" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="802">
       <c r="A802" s="1" t="n">
@@ -18138,6 +20543,9 @@
       <c r="F802" t="n">
         <v>4111.413</v>
       </c>
+      <c r="G802" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="803">
       <c r="A803" s="1" t="n">
@@ -18160,6 +20568,9 @@
       <c r="F803" t="n">
         <v>4112.925</v>
       </c>
+      <c r="G803" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="804">
       <c r="A804" s="1" t="n">
@@ -18182,6 +20593,9 @@
       <c r="F804" t="n">
         <v>4133.036000000001</v>
       </c>
+      <c r="G804" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="805">
       <c r="A805" s="1" t="n">
@@ -18204,6 +20618,9 @@
       <c r="F805" t="n">
         <v>4133.842000000001</v>
       </c>
+      <c r="G805" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="806">
       <c r="A806" s="1" t="n">
@@ -18226,6 +20643,9 @@
       <c r="F806" t="n">
         <v>4136.401999999999</v>
       </c>
+      <c r="G806" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="807">
       <c r="A807" s="1" t="n">
@@ -18248,6 +20668,9 @@
       <c r="F807" t="n">
         <v>4142.125999999999</v>
       </c>
+      <c r="G807" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="808">
       <c r="A808" s="1" t="n">
@@ -18270,6 +20693,9 @@
       <c r="F808" t="n">
         <v>4155.948</v>
       </c>
+      <c r="G808" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="809">
       <c r="A809" s="1" t="n">
@@ -18292,6 +20718,9 @@
       <c r="F809" t="n">
         <v>4173.254000000001</v>
       </c>
+      <c r="G809" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="810">
       <c r="A810" s="1" t="n">
@@ -18314,6 +20743,9 @@
       <c r="F810" t="n">
         <v>4174.203</v>
       </c>
+      <c r="G810" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="811">
       <c r="A811" s="1" t="n">
@@ -18336,6 +20768,9 @@
       <c r="F811" t="n">
         <v>4175.370000000001</v>
       </c>
+      <c r="G811" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="812">
       <c r="A812" s="1" t="n">
@@ -18358,6 +20793,9 @@
       <c r="F812" t="n">
         <v>4176.293999999999</v>
       </c>
+      <c r="G812" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="813">
       <c r="A813" s="1" t="n">
@@ -18380,6 +20818,9 @@
       <c r="F813" t="n">
         <v>4179.070000000001</v>
       </c>
+      <c r="G813" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="814">
       <c r="A814" s="1" t="n">
@@ -18402,6 +20843,9 @@
       <c r="F814" t="n">
         <v>4183.340999999999</v>
       </c>
+      <c r="G814" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="815">
       <c r="A815" s="1" t="n">
@@ -18424,6 +20868,9 @@
       <c r="F815" t="n">
         <v>4185.951000000001</v>
       </c>
+      <c r="G815" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="816">
       <c r="A816" s="1" t="n">
@@ -18446,6 +20893,9 @@
       <c r="F816" t="n">
         <v>4197.508000000001</v>
       </c>
+      <c r="G816" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="817">
       <c r="A817" s="1" t="n">
@@ -18468,6 +20918,9 @@
       <c r="F817" t="n">
         <v>4198.725</v>
       </c>
+      <c r="G817" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="818">
       <c r="A818" s="1" t="n">
@@ -18490,6 +20943,9 @@
       <c r="F818" t="n">
         <v>4200.182</v>
       </c>
+      <c r="G818" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="819">
       <c r="A819" s="1" t="n">
@@ -18512,6 +20968,9 @@
       <c r="F819" t="n">
         <v>4223.283000000001</v>
       </c>
+      <c r="G819" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="820">
       <c r="A820" s="1" t="n">
@@ -18534,6 +20993,9 @@
       <c r="F820" t="n">
         <v>4224.040000000001</v>
       </c>
+      <c r="G820" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="821">
       <c r="A821" s="1" t="n">
@@ -18556,6 +21018,9 @@
       <c r="F821" t="n">
         <v>4225.294999999999</v>
       </c>
+      <c r="G821" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="822">
       <c r="A822" s="1" t="n">
@@ -18578,6 +21043,9 @@
       <c r="F822" t="n">
         <v>4235.728999999999</v>
       </c>
+      <c r="G822" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="823">
       <c r="A823" s="1" t="n">
@@ -18600,6 +21068,9 @@
       <c r="F823" t="n">
         <v>4244.905000000001</v>
       </c>
+      <c r="G823" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="824">
       <c r="A824" s="1" t="n">
@@ -18622,6 +21093,9 @@
       <c r="F824" t="n">
         <v>4264.077000000001</v>
       </c>
+      <c r="G824" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="825">
       <c r="A825" s="1" t="n">
@@ -18644,6 +21118,9 @@
       <c r="F825" t="n">
         <v>4264.904</v>
       </c>
+      <c r="G825" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="826">
       <c r="A826" s="1" t="n">
@@ -18666,6 +21143,9 @@
       <c r="F826" t="n">
         <v>4265.528999999999</v>
       </c>
+      <c r="G826" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="827">
       <c r="A827" s="1" t="n">
@@ -18688,6 +21168,9 @@
       <c r="F827" t="n">
         <v>4267.021000000001</v>
       </c>
+      <c r="G827" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="828">
       <c r="A828" s="1" t="n">
@@ -18710,6 +21193,9 @@
       <c r="F828" t="n">
         <v>4267.712</v>
       </c>
+      <c r="G828" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="829">
       <c r="A829" s="1" t="n">
@@ -18732,6 +21218,9 @@
       <c r="F829" t="n">
         <v>4270.668999999999</v>
       </c>
+      <c r="G829" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="830">
       <c r="A830" s="1" t="n">
@@ -18754,6 +21243,9 @@
       <c r="F830" t="n">
         <v>4273.054000000001</v>
       </c>
+      <c r="G830" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="831">
       <c r="A831" s="1" t="n">
@@ -18776,6 +21268,9 @@
       <c r="F831" t="n">
         <v>4286.648</v>
       </c>
+      <c r="G831" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="832">
       <c r="A832" s="1" t="n">
@@ -18798,6 +21293,9 @@
       <c r="F832" t="n">
         <v>4288.635</v>
       </c>
+      <c r="G832" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="833">
       <c r="A833" s="1" t="n">
@@ -18820,6 +21318,9 @@
       <c r="F833" t="n">
         <v>4290.467000000001</v>
       </c>
+      <c r="G833" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="834">
       <c r="A834" s="1" t="n">
@@ -18842,6 +21343,9 @@
       <c r="F834" t="n">
         <v>4313.364000000001</v>
       </c>
+      <c r="G834" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="835">
       <c r="A835" s="1" t="n">
@@ -18864,6 +21368,9 @@
       <c r="F835" t="n">
         <v>4314.159000000001</v>
       </c>
+      <c r="G835" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="836">
       <c r="A836" s="1" t="n">
@@ -18886,6 +21393,9 @@
       <c r="F836" t="n">
         <v>4314.705999999999</v>
       </c>
+      <c r="G836" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="837">
       <c r="A837" s="1" t="n">
@@ -18908,6 +21418,9 @@
       <c r="F837" t="n">
         <v>4333.559000000001</v>
       </c>
+      <c r="G837" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="838">
       <c r="A838" s="1" t="n">
@@ -18930,6 +21443,9 @@
       <c r="F838" t="n">
         <v>4351.690000000001</v>
       </c>
+      <c r="G838" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="839">
       <c r="A839" s="1" t="n">
@@ -18952,6 +21468,9 @@
       <c r="F839" t="n">
         <v>4353.768</v>
       </c>
+      <c r="G839" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="840">
       <c r="A840" s="1" t="n">
@@ -18977,6 +21496,9 @@
       <c r="F840" t="n">
         <v>4354.535999999998</v>
       </c>
+      <c r="G840" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="841">
       <c r="A841" s="1" t="n">
@@ -18999,6 +21521,9 @@
       <c r="F841" t="n">
         <v>4356.714000000001</v>
       </c>
+      <c r="G841" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="842">
       <c r="A842" s="1" t="n">
@@ -19021,6 +21546,9 @@
       <c r="F842" t="n">
         <v>4357.674000000001</v>
       </c>
+      <c r="G842" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="843">
       <c r="A843" s="1" t="n">
@@ -19043,6 +21571,9 @@
       <c r="F843" t="n">
         <v>4358.731999999999</v>
       </c>
+      <c r="G843" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="844">
       <c r="A844" s="1" t="n">
@@ -19065,6 +21596,9 @@
       <c r="F844" t="n">
         <v>4360.739000000001</v>
       </c>
+      <c r="G844" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="845">
       <c r="A845" s="1" t="n">
@@ -19087,6 +21621,9 @@
       <c r="F845" t="n">
         <v>4373.747</v>
       </c>
+      <c r="G845" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="846">
       <c r="A846" s="1" t="n">
@@ -19109,6 +21646,9 @@
       <c r="F846" t="n">
         <v>4375.782</v>
       </c>
+      <c r="G846" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="847">
       <c r="A847" s="1" t="n">
@@ -19131,6 +21671,9 @@
       <c r="F847" t="n">
         <v>4380.271000000001</v>
       </c>
+      <c r="G847" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="848">
       <c r="A848" s="1" t="n">
@@ -19153,6 +21696,9 @@
       <c r="F848" t="n">
         <v>4403.441000000002</v>
       </c>
+      <c r="G848" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="849">
       <c r="A849" s="1" t="n">
@@ -19175,6 +21721,9 @@
       <c r="F849" t="n">
         <v>4404.315000000001</v>
       </c>
+      <c r="G849" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="850">
       <c r="A850" s="1" t="n">
@@ -19197,6 +21746,9 @@
       <c r="F850" t="n">
         <v>4404.976</v>
       </c>
+      <c r="G850" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="851">
       <c r="A851" s="1" t="n">
@@ -19219,6 +21771,9 @@
       <c r="F851" t="n">
         <v>4421.604000000001</v>
       </c>
+      <c r="G851" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="852">
       <c r="A852" s="1" t="n">
@@ -19241,6 +21796,9 @@
       <c r="F852" t="n">
         <v>4439.112000000001</v>
       </c>
+      <c r="G852" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="853">
       <c r="A853" s="1" t="n">
@@ -19263,6 +21821,9 @@
       <c r="F853" t="n">
         <v>4442.418</v>
       </c>
+      <c r="G853" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="854">
       <c r="A854" s="1" t="n">
@@ -19285,6 +21846,9 @@
       <c r="F854" t="n">
         <v>4447.720999999999</v>
       </c>
+      <c r="G854" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="855">
       <c r="A855" s="1" t="n">
@@ -19307,6 +21871,9 @@
       <c r="F855" t="n">
         <v>4449.456000000001</v>
       </c>
+      <c r="G855" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="856">
       <c r="A856" s="1" t="n">
@@ -19329,6 +21896,9 @@
       <c r="F856" t="n">
         <v>4450.650000000001</v>
       </c>
+      <c r="G856" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="857">
       <c r="A857" s="1" t="n">
@@ -19351,6 +21921,9 @@
       <c r="F857" t="n">
         <v>4451.765000000001</v>
       </c>
+      <c r="G857" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="858">
       <c r="A858" s="1" t="n">
@@ -19373,6 +21946,9 @@
       <c r="F858" t="n">
         <v>4461.176</v>
       </c>
+      <c r="G858" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="859">
       <c r="A859" s="1" t="n">
@@ -19395,6 +21971,9 @@
       <c r="F859" t="n">
         <v>4463.452</v>
       </c>
+      <c r="G859" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="860">
       <c r="A860" s="1" t="n">
@@ -19417,6 +21996,9 @@
       <c r="F860" t="n">
         <v>4463.609999999998</v>
       </c>
+      <c r="G860" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="861">
       <c r="A861" s="1" t="n">
@@ -19439,6 +22021,9 @@
       <c r="F861" t="n">
         <v>4471.067000000001</v>
       </c>
+      <c r="G861" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="862">
       <c r="A862" s="1" t="n">
@@ -19461,6 +22046,9 @@
       <c r="F862" t="n">
         <v>4493.934000000002</v>
       </c>
+      <c r="G862" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="863">
       <c r="A863" s="1" t="n">
@@ -19483,6 +22071,9 @@
       <c r="F863" t="n">
         <v>4494.874000000001</v>
       </c>
+      <c r="G863" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="864">
       <c r="A864" s="1" t="n">
@@ -19505,6 +22096,9 @@
       <c r="F864" t="n">
         <v>4495.378</v>
       </c>
+      <c r="G864" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="865">
       <c r="A865" s="1" t="n">
@@ -19527,6 +22121,9 @@
       <c r="F865" t="n">
         <v>4509.945000000002</v>
       </c>
+      <c r="G865" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="866">
       <c r="A866" s="1" t="n">
@@ -19549,6 +22146,9 @@
       <c r="F866" t="n">
         <v>4526.894000000001</v>
       </c>
+      <c r="G866" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="867">
       <c r="A867" s="1" t="n">
@@ -19571,6 +22171,9 @@
       <c r="F867" t="n">
         <v>4531.161999999999</v>
       </c>
+      <c r="G867" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="868">
       <c r="A868" s="1" t="n">
@@ -19593,6 +22196,9 @@
       <c r="F868" t="n">
         <v>4535.488999999999</v>
       </c>
+      <c r="G868" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="869">
       <c r="A869" s="1" t="n">
@@ -19615,6 +22221,9 @@
       <c r="F869" t="n">
         <v>4537.851000000001</v>
       </c>
+      <c r="G869" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="870">
       <c r="A870" s="1" t="n">
@@ -19637,6 +22246,9 @@
       <c r="F870" t="n">
         <v>4539.503000000001</v>
       </c>
+      <c r="G870" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="871">
       <c r="A871" s="1" t="n">
@@ -19659,6 +22271,9 @@
       <c r="F871" t="n">
         <v>4542.137000000002</v>
       </c>
+      <c r="G871" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="872">
       <c r="A872" s="1" t="n">
@@ -19681,6 +22296,9 @@
       <c r="F872" t="n">
         <v>4548.597000000001</v>
       </c>
+      <c r="G872" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="873">
       <c r="A873" s="1" t="n">
@@ -19703,6 +22321,9 @@
       <c r="F873" t="n">
         <v>4550.598</v>
       </c>
+      <c r="G873" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="874">
       <c r="A874" s="1" t="n">
@@ -19725,6 +22346,9 @@
       <c r="F874" t="n">
         <v>4557.647999999997</v>
       </c>
+      <c r="G874" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="875">
       <c r="A875" s="1" t="n">
@@ -19747,6 +22371,9 @@
       <c r="F875" t="n">
         <v>4561.081000000001</v>
       </c>
+      <c r="G875" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="876">
       <c r="A876" s="1" t="n">
@@ -19769,6 +22396,9 @@
       <c r="F876" t="n">
         <v>4586.502</v>
       </c>
+      <c r="G876" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="877">
       <c r="A877" s="1" t="n">
@@ -19791,6 +22421,9 @@
       <c r="F877" t="n">
         <v>4586.623</v>
       </c>
+      <c r="G877" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="878">
       <c r="A878" s="1" t="n">
@@ -19813,6 +22446,9 @@
       <c r="F878" t="n">
         <v>4598.443000000001</v>
       </c>
+      <c r="G878" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="879">
       <c r="A879" s="1" t="n">
@@ -19835,6 +22471,9 @@
       <c r="F879" t="n">
         <v>4614.512000000002</v>
       </c>
+      <c r="G879" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="880">
       <c r="A880" s="1" t="n">
@@ -19857,6 +22496,9 @@
       <c r="F880" t="n">
         <v>4619.915999999999</v>
       </c>
+      <c r="G880" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="881">
       <c r="A881" s="1" t="n">
@@ -19879,6 +22521,9 @@
       <c r="F881" t="n">
         <v>4623.095999999999</v>
       </c>
+      <c r="G881" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="882">
       <c r="A882" s="1" t="n">
@@ -19901,6 +22546,9 @@
       <c r="F882" t="n">
         <v>4625.695000000002</v>
       </c>
+      <c r="G882" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="883">
       <c r="A883" s="1" t="n">
@@ -19923,6 +22571,9 @@
       <c r="F883" t="n">
         <v>4627.926</v>
       </c>
+      <c r="G883" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="884">
       <c r="A884" s="1" t="n">
@@ -19945,6 +22596,9 @@
       <c r="F884" t="n">
         <v>4631.657000000002</v>
       </c>
+      <c r="G884" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="885">
       <c r="A885" s="1" t="n">
@@ -19967,6 +22621,9 @@
       <c r="F885" t="n">
         <v>4636.303000000001</v>
       </c>
+      <c r="G885" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="886">
       <c r="A886" s="1" t="n">
@@ -19989,6 +22646,9 @@
       <c r="F886" t="n">
         <v>4637.978</v>
       </c>
+      <c r="G886" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="887">
       <c r="A887" s="1" t="n">
@@ -20011,6 +22671,9 @@
       <c r="F887" t="n">
         <v>4644.358999999998</v>
       </c>
+      <c r="G887" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="888">
       <c r="A888" s="1" t="n">
@@ -20033,6 +22696,9 @@
       <c r="F888" t="n">
         <v>4650.852000000001</v>
       </c>
+      <c r="G888" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="889">
       <c r="A889" s="1" t="n">
@@ -20055,6 +22721,9 @@
       <c r="F889" t="n">
         <v>4676.048000000001</v>
       </c>
+      <c r="G889" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="890">
       <c r="A890" s="1" t="n">
@@ -20077,6 +22746,9 @@
       <c r="F890" t="n">
         <v>4677.209</v>
       </c>
+      <c r="G890" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="891">
       <c r="A891" s="1" t="n">
@@ -20099,6 +22771,9 @@
       <c r="F891" t="n">
         <v>4686.701000000001</v>
       </c>
+      <c r="G891" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="892">
       <c r="A892" s="1" t="n">
@@ -20121,6 +22796,9 @@
       <c r="F892" t="n">
         <v>4701.150000000001</v>
       </c>
+      <c r="G892" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="893">
       <c r="A893" s="1" t="n">
@@ -20143,6 +22821,9 @@
       <c r="F893" t="n">
         <v>4708.757</v>
       </c>
+      <c r="G893" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="894">
       <c r="A894" s="1" t="n">
@@ -20165,6 +22846,9 @@
       <c r="F894" t="n">
         <v>4710.182999999999</v>
       </c>
+      <c r="G894" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="895">
       <c r="A895" s="1" t="n">
@@ -20187,6 +22871,9 @@
       <c r="F895" t="n">
         <v>4712.740000000002</v>
       </c>
+      <c r="G895" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="896">
       <c r="A896" s="1" t="n">
@@ -20209,6 +22896,9 @@
       <c r="F896" t="n">
         <v>4716.032</v>
       </c>
+      <c r="G896" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="897">
       <c r="A897" s="1" t="n">
@@ -20231,6 +22921,9 @@
       <c r="F897" t="n">
         <v>4720.709000000002</v>
       </c>
+      <c r="G897" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="898">
       <c r="A898" s="1" t="n">
@@ -20253,6 +22946,9 @@
       <c r="F898" t="n">
         <v>4723.512000000001</v>
       </c>
+      <c r="G898" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="899">
       <c r="A899" s="1" t="n">
@@ -20275,6 +22971,9 @@
       <c r="F899" t="n">
         <v>4725.190000000001</v>
       </c>
+      <c r="G899" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="900">
       <c r="A900" s="1" t="n">
@@ -20297,6 +22996,9 @@
       <c r="F900" t="n">
         <v>4731.296999999998</v>
       </c>
+      <c r="G900" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="901">
       <c r="A901" s="1" t="n">
@@ -20319,6 +23021,9 @@
       <c r="F901" t="n">
         <v>4740.376000000001</v>
       </c>
+      <c r="G901" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="902">
       <c r="A902" s="1" t="n">
@@ -20341,6 +23046,9 @@
       <c r="F902" t="n">
         <v>4764.988</v>
       </c>
+      <c r="G902" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="903">
       <c r="A903" s="1" t="n">
@@ -20363,6 +23071,9 @@
       <c r="F903" t="n">
         <v>4765.983999999999</v>
       </c>
+      <c r="G903" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="904">
       <c r="A904" s="1" t="n">
@@ -20385,6 +23096,9 @@
       <c r="F904" t="n">
         <v>4775.094000000001</v>
       </c>
+      <c r="G904" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="905">
       <c r="A905" s="1" t="n">
@@ -20407,6 +23121,9 @@
       <c r="F905" t="n">
         <v>4788.157000000001</v>
       </c>
+      <c r="G905" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="906">
       <c r="A906" s="1" t="n">
@@ -20429,6 +23146,9 @@
       <c r="F906" t="n">
         <v>4798.481999999999</v>
       </c>
+      <c r="G906" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="907">
       <c r="A907" s="1" t="n">
@@ -20451,6 +23171,9 @@
       <c r="F907" t="n">
         <v>4799.255999999999</v>
       </c>
+      <c r="G907" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="908">
       <c r="A908" s="1" t="n">
@@ -20473,6 +23196,9 @@
       <c r="F908" t="n">
         <v>4800.152000000002</v>
       </c>
+      <c r="G908" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="909">
       <c r="A909" s="1" t="n">
@@ -20495,6 +23221,9 @@
       <c r="F909" t="n">
         <v>4803.709</v>
       </c>
+      <c r="G909" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="910">
       <c r="A910" s="1" t="n">
@@ -20517,6 +23246,9 @@
       <c r="F910" t="n">
         <v>4809.923000000002</v>
       </c>
+      <c r="G910" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="911">
       <c r="A911" s="1" t="n">
@@ -20539,6 +23271,9 @@
       <c r="F911" t="n">
         <v>4811.085000000001</v>
       </c>
+      <c r="G911" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="912">
       <c r="A912" s="1" t="n">
@@ -20561,6 +23296,9 @@
       <c r="F912" t="n">
         <v>4812.544000000001</v>
       </c>
+      <c r="G912" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="913">
       <c r="A913" s="1" t="n">
@@ -20583,6 +23321,9 @@
       <c r="F913" t="n">
         <v>4818.952999999998</v>
       </c>
+      <c r="G913" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="914">
       <c r="A914" s="1" t="n">
@@ -20605,6 +23346,9 @@
       <c r="F914" t="n">
         <v>4829.819000000001</v>
       </c>
+      <c r="G914" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="915">
       <c r="A915" s="1" t="n">
@@ -20627,6 +23371,9 @@
       <c r="F915" t="n">
         <v>4853.659000000001</v>
       </c>
+      <c r="G915" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="916">
       <c r="A916" s="1" t="n">
@@ -20649,6 +23396,9 @@
       <c r="F916" t="n">
         <v>4854.705999999999</v>
       </c>
+      <c r="G916" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="917">
       <c r="A917" s="1" t="n">
@@ -20671,6 +23421,9 @@
       <c r="F917" t="n">
         <v>4863.925000000001</v>
       </c>
+      <c r="G917" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="918">
       <c r="A918" s="1" t="n">
@@ -20693,6 +23446,9 @@
       <c r="F918" t="n">
         <v>4875.526000000001</v>
       </c>
+      <c r="G918" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="919">
       <c r="A919" s="1" t="n">
@@ -20715,6 +23471,9 @@
       <c r="F919" t="n">
         <v>4885.977999999999</v>
       </c>
+      <c r="G919" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="920">
       <c r="A920" s="1" t="n">
@@ -20737,6 +23496,9 @@
       <c r="F920" t="n">
         <v>4888.822000000002</v>
       </c>
+      <c r="G920" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="921">
       <c r="A921" s="1" t="n">
@@ -20759,6 +23521,9 @@
       <c r="F921" t="n">
         <v>4890.768999999999</v>
       </c>
+      <c r="G921" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="922">
       <c r="A922" s="1" t="n">
@@ -20781,6 +23546,9 @@
       <c r="F922" t="n">
         <v>4891.836</v>
       </c>
+      <c r="G922" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="923">
       <c r="A923" s="1" t="n">
@@ -20803,6 +23571,9 @@
       <c r="F923" t="n">
         <v>4898.545000000001</v>
       </c>
+      <c r="G923" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="924">
       <c r="A924" s="1" t="n">
@@ -20825,6 +23596,9 @@
       <c r="F924" t="n">
         <v>4901.068000000001</v>
       </c>
+      <c r="G924" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="925">
       <c r="A925" s="1" t="n">
@@ -20847,6 +23621,9 @@
       <c r="F925" t="n">
         <v>4903.704000000002</v>
       </c>
+      <c r="G925" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="926">
       <c r="A926" s="1" t="n">
@@ -20869,6 +23646,9 @@
       <c r="F926" t="n">
         <v>4906.220999999998</v>
       </c>
+      <c r="G926" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="927">
       <c r="A927" s="1" t="n">
@@ -20891,6 +23671,9 @@
       <c r="F927" t="n">
         <v>4919.259000000001</v>
       </c>
+      <c r="G927" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="928">
       <c r="A928" s="1" t="n">
@@ -20913,6 +23696,9 @@
       <c r="F928" t="n">
         <v>4942.304000000001</v>
       </c>
+      <c r="G928" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="929">
       <c r="A929" s="1" t="n">
@@ -20935,6 +23721,9 @@
       <c r="F929" t="n">
         <v>4943.242999999999</v>
       </c>
+      <c r="G929" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="930">
       <c r="A930" s="1" t="n">
@@ -20957,6 +23746,9 @@
       <c r="F930" t="n">
         <v>4952.117000000001</v>
       </c>
+      <c r="G930" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="931">
       <c r="A931" s="1" t="n">
@@ -20979,6 +23771,9 @@
       <c r="F931" t="n">
         <v>4962.963000000001</v>
       </c>
+      <c r="G931" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="932">
       <c r="A932" s="1" t="n">
@@ -21001,6 +23796,9 @@
       <c r="F932" t="n">
         <v>4973.504999999999</v>
       </c>
+      <c r="G932" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="933">
       <c r="A933" s="1" t="n">
@@ -21023,6 +23821,9 @@
       <c r="F933" t="n">
         <v>4975.415000000002</v>
       </c>
+      <c r="G933" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="934">
       <c r="A934" s="1" t="n">
@@ -21045,6 +23846,9 @@
       <c r="F934" t="n">
         <v>4979.242999999999</v>
       </c>
+      <c r="G934" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="935">
       <c r="A935" s="1" t="n">
@@ -21067,6 +23871,9 @@
       <c r="F935" t="n">
         <v>4980.163</v>
       </c>
+      <c r="G935" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="936">
       <c r="A936" s="1" t="n">
@@ -21089,6 +23896,9 @@
       <c r="F936" t="n">
         <v>4985.083000000001</v>
       </c>
+      <c r="G936" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="937">
       <c r="A937" s="1" t="n">
@@ -21111,6 +23921,9 @@
       <c r="F937" t="n">
         <v>4990.470000000001</v>
       </c>
+      <c r="G937" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="938">
       <c r="A938" s="1" t="n">
@@ -21133,6 +23946,9 @@
       <c r="F938" t="n">
         <v>4993.372000000001</v>
       </c>
+      <c r="G938" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="939">
       <c r="A939" s="1" t="n">
@@ -21155,6 +23971,9 @@
       <c r="F939" t="n">
         <v>4994.274999999998</v>
       </c>
+      <c r="G939" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="940">
       <c r="A940" s="1" t="n">
@@ -21177,6 +23996,9 @@
       <c r="F940" t="n">
         <v>5009.155000000001</v>
       </c>
+      <c r="G940" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="941">
       <c r="A941" s="1" t="n">
@@ -21199,6 +24021,9 @@
       <c r="F941" t="n">
         <v>5030.779000000001</v>
       </c>
+      <c r="G941" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="942">
       <c r="A942" s="1" t="n">
@@ -21221,6 +24046,9 @@
       <c r="F942" t="n">
         <v>5031.728999999999</v>
       </c>
+      <c r="G942" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="943">
       <c r="A943" s="1" t="n">
@@ -21242,6 +24070,9 @@
       </c>
       <c r="F943" t="n">
         <v>5040.607000000001</v>
+      </c>
+      <c r="G943" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/data/out.xlsx
+++ b/analysis/data/out.xlsx
@@ -930,11 +930,8 @@
       <c r="D20" t="n">
         <v>167.633</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>5557    31.336
-Name: milliseconds, dtype: float64</t>
-        </is>
+      <c r="E20" t="n">
+        <v>31.336</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2758,11 +2755,8 @@
       <c r="D93" t="n">
         <v>110.632</v>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>5558    22.293
-Name: milliseconds, dtype: float64</t>
-        </is>
+      <c r="E93" t="n">
+        <v>22.293</v>
       </c>
       <c r="F93" t="n">
         <v>383.372</v>
@@ -4811,11 +4805,8 @@
       <c r="D175" t="n">
         <v>128.894</v>
       </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>5559    39.562
-Name: milliseconds, dtype: float64</t>
-        </is>
+      <c r="E175" t="n">
+        <v>39.562</v>
       </c>
       <c r="F175" t="n">
         <v>760.198</v>
@@ -7689,11 +7680,8 @@
       <c r="D290" t="n">
         <v>108.477</v>
       </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>5560    22.154
-Name: milliseconds, dtype: float64</t>
-        </is>
+      <c r="E290" t="n">
+        <v>22.154</v>
       </c>
       <c r="F290" t="n">
         <v>1295.109</v>
@@ -7742,11 +7730,8 @@
       <c r="D292" t="n">
         <v>116.702</v>
       </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>5561    28.591
-Name: milliseconds, dtype: float64</t>
-        </is>
+      <c r="E292" t="n">
+        <v>28.591</v>
       </c>
       <c r="F292" t="n">
         <v>1318.177</v>
@@ -8120,11 +8105,8 @@
       <c r="D307" t="n">
         <v>109.469</v>
       </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>5562    22.484
-Name: milliseconds, dtype: float64</t>
-        </is>
+      <c r="E307" t="n">
+        <v>22.484</v>
       </c>
       <c r="F307" t="n">
         <v>1382.849</v>
@@ -8148,11 +8130,8 @@
       <c r="D308" t="n">
         <v>109.892</v>
       </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>5563    23.13
-Name: milliseconds, dtype: float64</t>
-        </is>
+      <c r="E308" t="n">
+        <v>23.13</v>
       </c>
       <c r="F308" t="n">
         <v>1384.382</v>
@@ -8276,11 +8255,8 @@
       <c r="D313" t="n">
         <v>106.345</v>
       </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>5564    21.709
-Name: milliseconds, dtype: float64</t>
-        </is>
+      <c r="E313" t="n">
+        <v>21.709</v>
       </c>
       <c r="F313" t="n">
         <v>1424.777</v>
@@ -8529,11 +8505,8 @@
       <c r="D323" t="n">
         <v>108.359</v>
       </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>5565    22.045
-Name: milliseconds, dtype: float64</t>
-        </is>
+      <c r="E323" t="n">
+        <v>22.045</v>
       </c>
       <c r="F323" t="n">
         <v>1463.649</v>
@@ -8957,11 +8930,8 @@
       <c r="D340" t="n">
         <v>107.439</v>
       </c>
-      <c r="E340" t="inlineStr">
-        <is>
-          <t>5566    21.762
-Name: milliseconds, dtype: float64</t>
-        </is>
+      <c r="E340" t="n">
+        <v>21.762</v>
       </c>
       <c r="F340" t="n">
         <v>1552.844</v>
@@ -9785,11 +9755,8 @@
       <c r="D373" t="n">
         <v>107.482</v>
       </c>
-      <c r="E373" t="inlineStr">
-        <is>
-          <t>5567    21.568
-Name: milliseconds, dtype: float64</t>
-        </is>
+      <c r="E373" t="n">
+        <v>21.568</v>
       </c>
       <c r="F373" t="n">
         <v>1728.14</v>
@@ -10963,11 +10930,8 @@
       <c r="D420" t="n">
         <v>106.995</v>
       </c>
-      <c r="E420" t="inlineStr">
-        <is>
-          <t>5568    21.988
-Name: milliseconds, dtype: float64</t>
-        </is>
+      <c r="E420" t="n">
+        <v>21.988</v>
       </c>
       <c r="F420" t="n">
         <v>1956.362</v>
@@ -11816,11 +11780,8 @@
       <c r="D454" t="n">
         <v>106.647</v>
       </c>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>5569    21.44
-Name: milliseconds, dtype: float64</t>
-        </is>
+      <c r="E454" t="n">
+        <v>21.44</v>
       </c>
       <c r="F454" t="n">
         <v>2146.56</v>
@@ -11894,11 +11855,8 @@
       <c r="D457" t="n">
         <v>108.655</v>
       </c>
-      <c r="E457" t="inlineStr">
-        <is>
-          <t>5570    22.208
-Name: milliseconds, dtype: float64</t>
-        </is>
+      <c r="E457" t="n">
+        <v>22.208</v>
       </c>
       <c r="F457" t="n">
         <v>2159.527</v>
@@ -12247,11 +12205,8 @@
       <c r="D471" t="n">
         <v>106.225</v>
       </c>
-      <c r="E471" t="inlineStr">
-        <is>
-          <t>5571    22.033
-Name: milliseconds, dtype: float64</t>
-        </is>
+      <c r="E471" t="n">
+        <v>22.033</v>
       </c>
       <c r="F471" t="n">
         <v>2241.266000000001</v>
@@ -13875,11 +13830,8 @@
       <c r="D536" t="n">
         <v>110.755</v>
       </c>
-      <c r="E536" t="inlineStr">
-        <is>
-          <t>5572    22.38
-Name: milliseconds, dtype: float64</t>
-        </is>
+      <c r="E536" t="n">
+        <v>22.38</v>
       </c>
       <c r="F536" t="n">
         <v>2594.589</v>
@@ -14253,11 +14205,8 @@
       <c r="D551" t="n">
         <v>110.816</v>
       </c>
-      <c r="E551" t="inlineStr">
-        <is>
-          <t>5573    23.159
-Name: milliseconds, dtype: float64</t>
-        </is>
+      <c r="E551" t="n">
+        <v>23.159</v>
       </c>
       <c r="F551" t="n">
         <v>2682.397999999999</v>
@@ -15631,11 +15580,8 @@
       <c r="D606" t="n">
         <v>111.432</v>
       </c>
-      <c r="E606" t="inlineStr">
-        <is>
-          <t>5574    25.559
-Name: milliseconds, dtype: float64</t>
-        </is>
+      <c r="E606" t="n">
+        <v>25.559</v>
       </c>
       <c r="F606" t="n">
         <v>2995.086</v>
@@ -20209,11 +20155,8 @@
       <c r="D789" t="n">
         <v>110.882</v>
       </c>
-      <c r="E789" t="inlineStr">
-        <is>
-          <t>5575    22.189
-Name: milliseconds, dtype: float64</t>
-        </is>
+      <c r="E789" t="n">
+        <v>22.189</v>
       </c>
       <c r="F789" t="n">
         <v>4031.244</v>
@@ -21487,11 +21430,8 @@
       <c r="D840" t="n">
         <v>109.074</v>
       </c>
-      <c r="E840" t="inlineStr">
-        <is>
-          <t>5576    24.026
-Name: milliseconds, dtype: float64</t>
-        </is>
+      <c r="E840" t="n">
+        <v>24.026</v>
       </c>
       <c r="F840" t="n">
         <v>4354.535999999998</v>
